--- a/Get_Properties_Notebook-WI/gp_start_folder/pyrd_properties_postprocessed_for_pyrd1_to_pyrd13.xlsx
+++ b/Get_Properties_Notebook-WI/gp_start_folder/pyrd_properties_postprocessed_for_pyrd1_to_pyrd13.xlsx
@@ -3457,7 +3457,7 @@
         <v>481.2836546552945</v>
       </c>
       <c r="Y2">
-        <v>0.9087150198158866</v>
+        <v>0.9087150198158868</v>
       </c>
       <c r="Z2">
         <v>-0.00773</v>
@@ -3765,7 +3765,7 @@
         <v>481.2836546552945</v>
       </c>
       <c r="Y3">
-        <v>0.9087150198158866</v>
+        <v>0.9087150198158868</v>
       </c>
       <c r="Z3">
         <v>-0.00773</v>
@@ -4375,7 +4375,7 @@
         <v>481.2836546552945</v>
       </c>
       <c r="Y5">
-        <v>0.9087150198158866</v>
+        <v>0.9087150198158868</v>
       </c>
       <c r="Z5">
         <v>-0.00773</v>
@@ -4677,7 +4677,7 @@
         <v>481.2836546552945</v>
       </c>
       <c r="Y6">
-        <v>0.9087150198158866</v>
+        <v>0.9087150198158868</v>
       </c>
       <c r="Z6">
         <v>-0.00773</v>
@@ -5317,7 +5317,7 @@
         <v>481.2836546552945</v>
       </c>
       <c r="Y8">
-        <v>0.9087150198158866</v>
+        <v>0.9087150198158868</v>
       </c>
       <c r="Z8">
         <v>-0.00773</v>
@@ -5661,7 +5661,7 @@
         <v>481.2836546552945</v>
       </c>
       <c r="Y9">
-        <v>0.9087150198158866</v>
+        <v>0.9087150198158868</v>
       </c>
       <c r="Z9">
         <v>-0.00773</v>
@@ -6232,6 +6232,9 @@
       <c r="CX10">
         <v>2.217329923369348E-11</v>
       </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
       <c r="CZ10">
         <v>4.60460449422118E-11</v>
       </c>
@@ -7141,6 +7144,9 @@
       <c r="CX13">
         <v>2.217329923369348E-11</v>
       </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
       <c r="CZ13">
         <v>4.60460449422118E-11</v>
       </c>
@@ -7434,6 +7440,9 @@
       <c r="CX14">
         <v>2.217329923369348E-11</v>
       </c>
+      <c r="CY14">
+        <v>0</v>
+      </c>
       <c r="CZ14">
         <v>4.60460449422118E-11</v>
       </c>
@@ -7727,6 +7736,9 @@
       <c r="CX15">
         <v>0</v>
       </c>
+      <c r="CY15">
+        <v>0</v>
+      </c>
       <c r="CZ15">
         <v>0</v>
       </c>
@@ -8056,6 +8068,9 @@
       <c r="CX16">
         <v>2.217329923369348E-11</v>
       </c>
+      <c r="CY16">
+        <v>0</v>
+      </c>
       <c r="CZ16">
         <v>4.60460449422118E-11</v>
       </c>
@@ -8391,6 +8406,9 @@
       <c r="CX17">
         <v>2.217329923369348E-11</v>
       </c>
+      <c r="CY17">
+        <v>0</v>
+      </c>
       <c r="CZ17">
         <v>4.60460449422118E-11</v>
       </c>
@@ -11047,7 +11065,7 @@
         <v>1050.322954953765</v>
       </c>
       <c r="Y26">
-        <v>0.7730539872740928</v>
+        <v>0.7730539872740929</v>
       </c>
       <c r="Z26">
         <v>0.36405</v>
@@ -11281,13 +11299,13 @@
         <v>0.00538057323168181</v>
       </c>
       <c r="CY26">
-        <v>0.009002157117879767</v>
+        <v>0.009002157114722556</v>
       </c>
       <c r="CZ26">
         <v>0.001354424316332817</v>
       </c>
       <c r="DA26">
-        <v>0.008810155075217957</v>
+        <v>0.00881015507199194</v>
       </c>
       <c r="DB26">
         <v>0.001326338705009063</v>
@@ -11619,7 +11637,7 @@
         <v>0.003954538278011386</v>
       </c>
       <c r="CW27">
-        <v>0.03453921437079063</v>
+        <v>0.0345392143716135</v>
       </c>
       <c r="CX27">
         <v>0.005194677434281732</v>
@@ -11631,7 +11649,7 @@
         <v>0.00111515879220912</v>
       </c>
       <c r="DA27">
-        <v>0.008709954742822452</v>
+        <v>0.008709954746085581</v>
       </c>
       <c r="DB27">
         <v>0.001311253988648525</v>
@@ -11735,7 +11753,7 @@
         <v>1050.765022949865</v>
       </c>
       <c r="Y28">
-        <v>0.7711950199863302</v>
+        <v>0.7711950199863301</v>
       </c>
       <c r="Z28">
         <v>0.36613</v>
@@ -11981,7 +11999,7 @@
         <v>0.001142919166009268</v>
       </c>
       <c r="DC28">
-        <v>0.001495505163028768</v>
+        <v>0.001495505182033523</v>
       </c>
       <c r="DD28">
         <v>0.0002243922807181021</v>
@@ -12657,7 +12675,7 @@
         <v>0.01028629406723694</v>
       </c>
       <c r="CY30">
-        <v>0.0531483321012614</v>
+        <v>0.05314833210072664</v>
       </c>
       <c r="CZ30">
         <v>0.007989715952081115</v>
@@ -12669,7 +12687,7 @@
         <v>0.001799378685958199</v>
       </c>
       <c r="DC30">
-        <v>0.07165452656525993</v>
+        <v>0.07165452656486328</v>
       </c>
       <c r="DD30">
         <v>0.01074754827591522</v>
@@ -12767,7 +12785,7 @@
         <v>1057.2508021561</v>
       </c>
       <c r="Y31">
-        <v>0.7680373521151318</v>
+        <v>0.7680373521151316</v>
       </c>
       <c r="Z31">
         <v>0.36908</v>
@@ -13111,7 +13129,7 @@
         <v>1057.532098030981</v>
       </c>
       <c r="Y32">
-        <v>0.7680090410512637</v>
+        <v>0.7680090410512636</v>
       </c>
       <c r="Z32">
         <v>0.37048</v>
@@ -13345,7 +13363,7 @@
         <v>0.009444903079002948</v>
       </c>
       <c r="CY32">
-        <v>0.05023990013016496</v>
+        <v>0.05023990012959925</v>
       </c>
       <c r="CZ32">
         <v>0.007551460571459246</v>
@@ -13378,7 +13396,7 @@
         <v>21.34361</v>
       </c>
       <c r="DJ32">
-        <v>1.357805555555555</v>
+        <v>1.357805555555556</v>
       </c>
     </row>
     <row r="33" spans="1:114">
@@ -13455,7 +13473,7 @@
         <v>1057.296124173699</v>
       </c>
       <c r="Y33">
-        <v>0.7685179782410811</v>
+        <v>0.768517978241081</v>
       </c>
       <c r="Z33">
         <v>0.37056</v>
@@ -13689,7 +13707,7 @@
         <v>0.009195159700066024</v>
       </c>
       <c r="CY33">
-        <v>0.04863293430075715</v>
+        <v>0.04863293430134157</v>
       </c>
       <c r="CZ33">
         <v>0.007309941233711049</v>
@@ -13722,7 +13740,7 @@
         <v>21.66419</v>
       </c>
       <c r="DJ33">
-        <v>1.377916666666666</v>
+        <v>1.377916666666667</v>
       </c>
     </row>
     <row r="34" spans="1:114">
@@ -13763,7 +13781,7 @@
         <v>1050.512597874372</v>
       </c>
       <c r="Y34">
-        <v>0.7722493892644267</v>
+        <v>0.7722493892644268</v>
       </c>
       <c r="Z34">
         <v>0.3648752777230609</v>
@@ -13991,25 +14009,25 @@
         <v>0.003964826577027958</v>
       </c>
       <c r="CW34">
-        <v>0.03409234603712281</v>
+        <v>0.03409234603735735</v>
       </c>
       <c r="CX34">
         <v>0.005128489484174621</v>
       </c>
       <c r="CY34">
-        <v>0.006908239800037505</v>
+        <v>0.006908239799028543</v>
       </c>
       <c r="CZ34">
         <v>0.001039253575346968</v>
       </c>
       <c r="DA34">
-        <v>0.00841906132932425</v>
+        <v>0.008419061329223401</v>
       </c>
       <c r="DB34">
         <v>0.001267351810608898</v>
       </c>
       <c r="DC34">
-        <v>0.0007738835635210358</v>
+        <v>0.0007738835672443647</v>
       </c>
       <c r="DD34">
         <v>0.0001161225908579138</v>
@@ -14071,7 +14089,7 @@
         <v>0.3008431076342702</v>
       </c>
       <c r="Y35">
-        <v>0.0009711666039736014</v>
+        <v>0.000971166603973662</v>
       </c>
       <c r="Z35">
         <v>0.001084778078172138</v>
@@ -14122,7 +14140,7 @@
         <v>0.01195435032256523</v>
       </c>
       <c r="AP35">
-        <v>0.007795017339870444</v>
+        <v>0.007795017339870443</v>
       </c>
       <c r="AQ35">
         <v>0.009538691074471863</v>
@@ -14299,25 +14317,25 @@
         <v>0.0002050450807181263</v>
       </c>
       <c r="CW35">
-        <v>0.001566208299200186</v>
+        <v>0.001566208299276666</v>
       </c>
       <c r="CX35">
         <v>0.0002342999686447885</v>
       </c>
       <c r="CY35">
-        <v>0.001902662261001533</v>
+        <v>0.001902662259732514</v>
       </c>
       <c r="CZ35">
         <v>0.0002864240184118318</v>
       </c>
       <c r="DA35">
-        <v>0.0004982691908711109</v>
+        <v>0.0004982691905668846</v>
       </c>
       <c r="DB35">
         <v>7.514159127213462E-05</v>
       </c>
       <c r="DC35">
-        <v>0.0006423798208258684</v>
+        <v>0.0006423798256059851</v>
       </c>
       <c r="DD35">
         <v>9.63797898500003E-05</v>
@@ -14675,7 +14693,7 @@
         <v>1057.954823022715</v>
       </c>
       <c r="Y37">
-        <v>0.7730539872740928</v>
+        <v>0.7730539872740929</v>
       </c>
       <c r="Z37">
         <v>0.37056</v>
@@ -14909,7 +14927,7 @@
         <v>0.01028629406723694</v>
       </c>
       <c r="CY37">
-        <v>0.0531483321012614</v>
+        <v>0.05314833210072664</v>
       </c>
       <c r="CZ37">
         <v>0.007989715952081115</v>
@@ -14921,7 +14939,7 @@
         <v>0.001947814149640381</v>
       </c>
       <c r="DC37">
-        <v>0.07165452656525993</v>
+        <v>0.07165452656486328</v>
       </c>
       <c r="DD37">
         <v>0.01074754827591522</v>
@@ -14977,7 +14995,7 @@
         <v>7.700682623011971</v>
       </c>
       <c r="Y38">
-        <v>0.005450990798353206</v>
+        <v>0.005450990798353317</v>
       </c>
       <c r="Z38">
         <v>0.006510000000000016</v>
@@ -15211,7 +15229,7 @@
         <v>0.005468604415327184</v>
       </c>
       <c r="CY38">
-        <v>0.0485125770898169</v>
+        <v>0.04851257708928214</v>
       </c>
       <c r="CZ38">
         <v>0.007292552545911214</v>
@@ -15223,7 +15241,7 @@
         <v>0.000804894983631113</v>
       </c>
       <c r="DC38">
-        <v>0.07147393633422174</v>
+        <v>0.07147393633382508</v>
       </c>
       <c r="DD38">
         <v>0.01072044612128226</v>
@@ -15315,7 +15333,7 @@
         <v>1050.322954953765</v>
       </c>
       <c r="Y39">
-        <v>0.7730539872740928</v>
+        <v>0.7730539872740929</v>
       </c>
       <c r="Z39">
         <v>0.36405</v>
@@ -15549,13 +15567,13 @@
         <v>0.00538057323168181</v>
       </c>
       <c r="CY39">
-        <v>0.009002157117879767</v>
+        <v>0.009002157114722556</v>
       </c>
       <c r="CZ39">
         <v>0.001354424316332817</v>
       </c>
       <c r="DA39">
-        <v>0.008810155075217957</v>
+        <v>0.00881015507199194</v>
       </c>
       <c r="DB39">
         <v>0.001326338705009063</v>
@@ -15659,7 +15677,7 @@
         <v>1050.322954953765</v>
       </c>
       <c r="Y40">
-        <v>0.7730539872740928</v>
+        <v>0.7730539872740929</v>
       </c>
       <c r="Z40">
         <v>0.36405</v>
@@ -15893,13 +15911,13 @@
         <v>0.00538057323168181</v>
       </c>
       <c r="CY40">
-        <v>0.009002157117879767</v>
+        <v>0.009002157114722556</v>
       </c>
       <c r="CZ40">
         <v>0.001354424316332817</v>
       </c>
       <c r="DA40">
-        <v>0.008810155075217957</v>
+        <v>0.00881015507199194</v>
       </c>
       <c r="DB40">
         <v>0.001326338705009063</v>
@@ -16003,7 +16021,7 @@
         <v>493.7604974470327</v>
       </c>
       <c r="Y41">
-        <v>0.8834367462195462</v>
+        <v>0.883436746219546</v>
       </c>
       <c r="Z41">
         <v>0.20832</v>
@@ -16243,7 +16261,7 @@
         <v>7.697872199508193E-05</v>
       </c>
       <c r="DA41">
-        <v>0.000188905315795657</v>
+        <v>0.0001889054662503862</v>
       </c>
       <c r="DB41">
         <v>2.843578173895098E-05</v>
@@ -16311,7 +16329,7 @@
         <v>493.7604974470327</v>
       </c>
       <c r="Y42">
-        <v>0.8834367462195462</v>
+        <v>0.883436746219546</v>
       </c>
       <c r="Z42">
         <v>0.20832</v>
@@ -16551,7 +16569,7 @@
         <v>7.697872199508193E-05</v>
       </c>
       <c r="DA42">
-        <v>0.000188905315795657</v>
+        <v>0.0001889054662503862</v>
       </c>
       <c r="DB42">
         <v>2.843578173895098E-05</v>
@@ -16921,7 +16939,7 @@
         <v>493.7604974470327</v>
       </c>
       <c r="Y44">
-        <v>0.8834367462195462</v>
+        <v>0.883436746219546</v>
       </c>
       <c r="Z44">
         <v>0.20832</v>
@@ -17161,7 +17179,7 @@
         <v>7.697872199508193E-05</v>
       </c>
       <c r="DA44">
-        <v>0.000188905315795657</v>
+        <v>0.0001889054662503862</v>
       </c>
       <c r="DB44">
         <v>2.843578173895098E-05</v>
@@ -17223,7 +17241,7 @@
         <v>493.7604974470327</v>
       </c>
       <c r="Y45">
-        <v>0.8834367462195462</v>
+        <v>0.883436746219546</v>
       </c>
       <c r="Z45">
         <v>0.20832</v>
@@ -17463,7 +17481,7 @@
         <v>7.697872199508193E-05</v>
       </c>
       <c r="DA45">
-        <v>0.000188905315795657</v>
+        <v>0.0001889054662503862</v>
       </c>
       <c r="DB45">
         <v>2.843578173895098E-05</v>
@@ -17863,7 +17881,7 @@
         <v>493.7604974470327</v>
       </c>
       <c r="Y47">
-        <v>0.8834367462195462</v>
+        <v>0.883436746219546</v>
       </c>
       <c r="Z47">
         <v>0.20832</v>
@@ -18103,7 +18121,7 @@
         <v>7.697872199508193E-05</v>
       </c>
       <c r="DA47">
-        <v>0.000188905315795657</v>
+        <v>0.0001889054662503862</v>
       </c>
       <c r="DB47">
         <v>2.843578173895098E-05</v>
@@ -18207,7 +18225,7 @@
         <v>493.7604974470327</v>
       </c>
       <c r="Y48">
-        <v>0.8834367462195462</v>
+        <v>0.883436746219546</v>
       </c>
       <c r="Z48">
         <v>0.20832</v>
@@ -18447,7 +18465,7 @@
         <v>7.697872199508193E-05</v>
       </c>
       <c r="DA48">
-        <v>0.000188905315795657</v>
+        <v>0.0001889054662503862</v>
       </c>
       <c r="DB48">
         <v>2.843578173895098E-05</v>
@@ -18818,7 +18836,7 @@
         <v>7.74592</v>
       </c>
       <c r="DJ49">
-        <v>0.4923333333333334</v>
+        <v>0.4923333333333333</v>
       </c>
     </row>
     <row r="50" spans="1:114">
@@ -18895,7 +18913,7 @@
         <v>706.9059676959608</v>
       </c>
       <c r="Y50">
-        <v>0.8425154336963186</v>
+        <v>0.8425154336963189</v>
       </c>
       <c r="Z50">
         <v>0.3868</v>
@@ -19060,7 +19078,7 @@
         <v>7.617749079320117</v>
       </c>
       <c r="CB50">
-        <v>1.794702526718079</v>
+        <v>1.794702526718078</v>
       </c>
       <c r="CC50">
         <v>5.610655804343359</v>
@@ -19123,7 +19141,7 @@
         <v>0.00221574175038469</v>
       </c>
       <c r="CW50">
-        <v>0.008473500721121154</v>
+        <v>0.008473500724475343</v>
       </c>
       <c r="CX50">
         <v>0.001275474509912727</v>
@@ -19392,7 +19410,7 @@
         <v>6.709691366364506</v>
       </c>
       <c r="BX51">
-        <v>4.705449134946884</v>
+        <v>4.70544913494688</v>
       </c>
       <c r="BY51">
         <v>1.994585144274845</v>
@@ -19410,7 +19428,7 @@
         <v>6.654914711635569</v>
       </c>
       <c r="CD51">
-        <v>4.705449134946884</v>
+        <v>4.70544913494688</v>
       </c>
       <c r="CE51">
         <v>1.994585144274845</v>
@@ -19467,7 +19485,7 @@
         <v>0.02141352081354141</v>
       </c>
       <c r="CW51">
-        <v>0.1074324711352352</v>
+        <v>0.1074324711349706</v>
       </c>
       <c r="CX51">
         <v>0.01617398662293377</v>
@@ -19479,7 +19497,7 @@
         <v>0.0008161329312630828</v>
       </c>
       <c r="DA51">
-        <v>0.02307079482304079</v>
+        <v>0.02307079482180886</v>
       </c>
       <c r="DB51">
         <v>0.003469077570082495</v>
@@ -19503,7 +19521,7 @@
         <v>-0.38993</v>
       </c>
       <c r="DI51">
-        <v>8.522110000000001</v>
+        <v>8.52211</v>
       </c>
       <c r="DJ51">
         <v>0.5413333333333333</v>
@@ -19775,7 +19793,7 @@
         <v>0.002167552725523285</v>
       </c>
       <c r="CW52">
-        <v>0.007627932620162262</v>
+        <v>0.007627932620213266</v>
       </c>
       <c r="CX52">
         <v>0.001147218908342715</v>
@@ -19787,7 +19805,7 @@
         <v>0.01542690962692937</v>
       </c>
       <c r="DA52">
-        <v>0.007733838765238835</v>
+        <v>0.007733838765238832</v>
       </c>
       <c r="DB52">
         <v>0.001163697443709237</v>
@@ -19811,7 +19829,7 @@
         <v>-0.3924677863468281</v>
       </c>
       <c r="DI52">
-        <v>8.28776</v>
+        <v>8.287759999999999</v>
       </c>
       <c r="DJ52">
         <v>0.5265</v>
@@ -19855,7 +19873,7 @@
         <v>0.8385280917041655</v>
       </c>
       <c r="Y53">
-        <v>0.002323919345608634</v>
+        <v>0.002323919345608667</v>
       </c>
       <c r="Z53">
         <v>0.03075624964314564</v>
@@ -20020,7 +20038,7 @@
         <v>0.4288406488894148</v>
       </c>
       <c r="CB53">
-        <v>0.00045035770111213</v>
+        <v>0.0004503577011121248</v>
       </c>
       <c r="CC53">
         <v>0.003899230796789368</v>
@@ -20083,7 +20101,7 @@
         <v>3.347931996094071E-05</v>
       </c>
       <c r="CW53">
-        <v>0.0002127466450955852</v>
+        <v>0.0002127466453993047</v>
       </c>
       <c r="CX53">
         <v>3.211878895195415E-05</v>
@@ -20095,7 +20113,7 @@
         <v>4.337168453862144E-05</v>
       </c>
       <c r="DA53">
-        <v>3.63449940791501E-05</v>
+        <v>3.634499407765261E-05</v>
       </c>
       <c r="DB53">
         <v>5.383467357989214E-06</v>
@@ -20687,7 +20705,7 @@
         <v>0.02141352081354141</v>
       </c>
       <c r="CW55">
-        <v>0.1074324711352352</v>
+        <v>0.1074324711349706</v>
       </c>
       <c r="CX55">
         <v>0.01617398662293377</v>
@@ -20699,7 +20717,7 @@
         <v>0.01543054793692866</v>
       </c>
       <c r="DA55">
-        <v>0.02307079482304079</v>
+        <v>0.02307079482180886</v>
       </c>
       <c r="DB55">
         <v>0.003469077570082495</v>
@@ -20989,7 +21007,7 @@
         <v>0.01924674970400005</v>
       </c>
       <c r="CW56">
-        <v>0.0998177895306719</v>
+        <v>0.09981778953040731</v>
       </c>
       <c r="CX56">
         <v>0.01502877740844681</v>
@@ -21001,7 +21019,7 @@
         <v>0.01461441500566558</v>
       </c>
       <c r="DA56">
-        <v>0.01533955901314339</v>
+        <v>0.01533955901191146</v>
       </c>
       <c r="DB56">
         <v>0.002305759705561714</v>
@@ -21366,7 +21384,7 @@
         <v>7.74592</v>
       </c>
       <c r="DJ57">
-        <v>0.4923333333333334</v>
+        <v>0.4923333333333333</v>
       </c>
     </row>
     <row r="58" spans="1:114">
@@ -21596,7 +21614,7 @@
         <v>6.709691366364506</v>
       </c>
       <c r="BX58">
-        <v>4.705449134946884</v>
+        <v>4.70544913494688</v>
       </c>
       <c r="BY58">
         <v>1.994585144274845</v>
@@ -21614,7 +21632,7 @@
         <v>6.654914711635569</v>
       </c>
       <c r="CD58">
-        <v>4.705449134946884</v>
+        <v>4.70544913494688</v>
       </c>
       <c r="CE58">
         <v>1.994585144274845</v>
@@ -21671,7 +21689,7 @@
         <v>0.02141352081354141</v>
       </c>
       <c r="CW58">
-        <v>0.1074324711352352</v>
+        <v>0.1074324711349706</v>
       </c>
       <c r="CX58">
         <v>0.01617398662293377</v>
@@ -21683,7 +21701,7 @@
         <v>0.0008161329312630828</v>
       </c>
       <c r="DA58">
-        <v>0.02307079482304079</v>
+        <v>0.02307079482180886</v>
       </c>
       <c r="DB58">
         <v>0.003469077570082495</v>
@@ -21707,7 +21725,7 @@
         <v>-0.38993</v>
       </c>
       <c r="DI58">
-        <v>8.522110000000001</v>
+        <v>8.52211</v>
       </c>
       <c r="DJ58">
         <v>0.5413333333333333</v>
@@ -22054,7 +22072,7 @@
         <v>9.42564</v>
       </c>
       <c r="DJ59">
-        <v>0.6431388888888888</v>
+        <v>0.6431388888888889</v>
       </c>
     </row>
     <row r="60" spans="1:114">
@@ -22131,7 +22149,7 @@
         <v>743.02127314224</v>
       </c>
       <c r="Y60">
-        <v>0.8274544544160525</v>
+        <v>0.8274544544160526</v>
       </c>
       <c r="Z60">
         <v>0.03616</v>
@@ -22365,7 +22383,7 @@
         <v>0.005767447489527139</v>
       </c>
       <c r="CY60">
-        <v>0.12996601604441</v>
+        <v>0.1299660160441914</v>
       </c>
       <c r="CZ60">
         <v>0.01956847067526471</v>
@@ -22395,10 +22413,10 @@
         <v>-0.39036</v>
       </c>
       <c r="DI60">
-        <v>9.848159999999998</v>
+        <v>9.84816</v>
       </c>
       <c r="DJ60">
-        <v>0.6661944444444445</v>
+        <v>0.6661944444444444</v>
       </c>
     </row>
     <row r="61" spans="1:114">
@@ -22439,7 +22457,7 @@
         <v>743.1803410645978</v>
       </c>
       <c r="Y61">
-        <v>0.8275278264745886</v>
+        <v>0.8275278264745887</v>
       </c>
       <c r="Z61">
         <v>0.03600978089870464</v>
@@ -22673,7 +22691,7 @@
         <v>0.005817543437968038</v>
       </c>
       <c r="CY61">
-        <v>0.1303390529645683</v>
+        <v>0.1303390529644629</v>
       </c>
       <c r="CZ61">
         <v>0.01962463798127122</v>
@@ -22703,7 +22721,7 @@
         <v>-0.3903185602479185</v>
       </c>
       <c r="DI61">
-        <v>9.636899999999999</v>
+        <v>9.636900000000001</v>
       </c>
       <c r="DJ61">
         <v>0.6546666666666667</v>
@@ -22747,7 +22765,7 @@
         <v>0.216999603819625</v>
       </c>
       <c r="Y62">
-        <v>0.0001000937674785532</v>
+        <v>0.0001000937674784748</v>
       </c>
       <c r="Z62">
         <v>0.0002049280897371986</v>
@@ -22981,7 +22999,7 @@
         <v>6.834062332314515E-05</v>
       </c>
       <c r="CY62">
-        <v>0.0005088949593646077</v>
+        <v>0.0005088949595190831</v>
       </c>
       <c r="CZ62">
         <v>7.662313664738038E-05</v>
@@ -23049,7 +23067,7 @@
         <v>743.02127314224</v>
       </c>
       <c r="Y63">
-        <v>0.8274544544160525</v>
+        <v>0.8274544544160526</v>
       </c>
       <c r="Z63">
         <v>0.03587</v>
@@ -23283,7 +23301,7 @@
         <v>0.005767447489527139</v>
       </c>
       <c r="CY63">
-        <v>0.12996601604441</v>
+        <v>0.1299660160441914</v>
       </c>
       <c r="CZ63">
         <v>0.01956847067526471</v>
@@ -23653,7 +23671,7 @@
         <v>0.3070827683427524</v>
       </c>
       <c r="Y65">
-        <v>0.0001416457480573063</v>
+        <v>0.0001416457480571953</v>
       </c>
       <c r="Z65">
         <v>0.0002899999999999986</v>
@@ -23887,7 +23905,7 @@
         <v>9.671090375715577E-05</v>
       </c>
       <c r="CY65">
-        <v>0.0007201528028929205</v>
+        <v>0.0007201528031115234</v>
       </c>
       <c r="CZ65">
         <v>0.0001084317413793112</v>
@@ -24258,7 +24276,7 @@
         <v>9.42564</v>
       </c>
       <c r="DJ66">
-        <v>0.6431388888888888</v>
+        <v>0.6431388888888889</v>
       </c>
     </row>
     <row r="67" spans="1:114">
@@ -24602,7 +24620,7 @@
         <v>9.42564</v>
       </c>
       <c r="DJ67">
-        <v>0.6431388888888888</v>
+        <v>0.6431388888888889</v>
       </c>
     </row>
     <row r="68" spans="1:114">
@@ -24679,7 +24697,7 @@
         <v>576.0198727464538</v>
       </c>
       <c r="Y68">
-        <v>0.8650231530029818</v>
+        <v>0.8650231530029816</v>
       </c>
       <c r="Z68">
         <v>0.17614</v>
@@ -25023,7 +25041,7 @@
         <v>576.026799095023</v>
       </c>
       <c r="Y69">
-        <v>0.8656787459279335</v>
+        <v>0.8656787459279333</v>
       </c>
       <c r="Z69">
         <v>0.18089</v>
@@ -25331,7 +25349,7 @@
         <v>576.0233395885811</v>
       </c>
       <c r="Y70">
-        <v>0.8653512966341967</v>
+        <v>0.8653512966341965</v>
       </c>
       <c r="Z70">
         <v>0.1785175153589186</v>
@@ -25941,7 +25959,7 @@
         <v>576.0198727464538</v>
       </c>
       <c r="Y72">
-        <v>0.8650231530029818</v>
+        <v>0.8650231530029816</v>
       </c>
       <c r="Z72">
         <v>0.17614</v>
@@ -26243,7 +26261,7 @@
         <v>576.026799095023</v>
       </c>
       <c r="Y73">
-        <v>0.8656787459279335</v>
+        <v>0.8656787459279333</v>
       </c>
       <c r="Z73">
         <v>0.18089</v>
@@ -26883,7 +26901,7 @@
         <v>576.026799095023</v>
       </c>
       <c r="Y75">
-        <v>0.8656787459279335</v>
+        <v>0.8656787459279333</v>
       </c>
       <c r="Z75">
         <v>0.18089</v>
@@ -27227,7 +27245,7 @@
         <v>576.026799095023</v>
       </c>
       <c r="Y76">
-        <v>0.8656787459279335</v>
+        <v>0.8656787459279333</v>
       </c>
       <c r="Z76">
         <v>0.18089</v>
@@ -27805,7 +27823,7 @@
         <v>5.359846344733438E-06</v>
       </c>
       <c r="CY77">
-        <v>0.0001816505505845571</v>
+        <v>0.0001816507070481466</v>
       </c>
       <c r="CZ77">
         <v>2.630446195564655E-05</v>
@@ -28113,7 +28131,7 @@
         <v>5.359846344733438E-06</v>
       </c>
       <c r="CY78">
-        <v>0.0001816505505845571</v>
+        <v>0.0001816507070481466</v>
       </c>
       <c r="CZ78">
         <v>2.630446195564655E-05</v>
@@ -28723,7 +28741,7 @@
         <v>5.359846344733438E-06</v>
       </c>
       <c r="CY80">
-        <v>0.0001816505505845571</v>
+        <v>0.0001816507070481466</v>
       </c>
       <c r="CZ80">
         <v>2.630446195564655E-05</v>
@@ -29025,7 +29043,7 @@
         <v>5.359846344733438E-06</v>
       </c>
       <c r="CY81">
-        <v>0.0001816505505845571</v>
+        <v>0.0001816507070481466</v>
       </c>
       <c r="CZ81">
         <v>2.630446195564655E-05</v>
@@ -29665,7 +29683,7 @@
         <v>5.359846344733438E-06</v>
       </c>
       <c r="CY83">
-        <v>0.0001816505505845571</v>
+        <v>0.0001816507070481466</v>
       </c>
       <c r="CZ83">
         <v>2.630446195564655E-05</v>
@@ -30009,7 +30027,7 @@
         <v>5.359846344733438E-06</v>
       </c>
       <c r="CY84">
-        <v>0.0001816505505845571</v>
+        <v>0.0001816507070481466</v>
       </c>
       <c r="CZ84">
         <v>2.630446195564655E-05</v>
@@ -30347,13 +30365,13 @@
         <v>0.001087744575946479</v>
       </c>
       <c r="CW85">
-        <v>0.02059317362334045</v>
+        <v>0.0205931736247206</v>
       </c>
       <c r="CX85">
         <v>0.003099534228441673</v>
       </c>
       <c r="CY85">
-        <v>0.03812025783492561</v>
+        <v>0.03812025783567118</v>
       </c>
       <c r="CZ85">
         <v>0.00573957134398325</v>
@@ -30365,7 +30383,7 @@
         <v>0.02269814300001743</v>
       </c>
       <c r="DC85">
-        <v>0.04491522891567505</v>
+        <v>0.04491522891440948</v>
       </c>
       <c r="DD85">
         <v>0.006739749616703892</v>
@@ -30807,49 +30825,49 @@
         <v>505.5106451857053</v>
       </c>
       <c r="Y87">
-        <v>0.8792856859332948</v>
+        <v>0.879285685933295</v>
       </c>
       <c r="Z87">
-        <v>0.02503</v>
+        <v>0.02177</v>
       </c>
       <c r="AA87">
-        <v>-0.24973</v>
+        <v>-0.05802</v>
       </c>
       <c r="AB87">
         <v>-0.16989</v>
       </c>
       <c r="AC87">
-        <v>-0.05802</v>
+        <v>-0.24973</v>
       </c>
       <c r="AD87">
-        <v>0.02177</v>
+        <v>0.02503</v>
       </c>
       <c r="AE87">
         <v>-0.40802</v>
       </c>
       <c r="AF87">
-        <v>12.5514</v>
+        <v>14.6598</v>
       </c>
       <c r="AG87">
-        <v>41.6143</v>
+        <v>28.669</v>
       </c>
       <c r="AH87">
         <v>25.798</v>
       </c>
       <c r="AI87">
-        <v>28.669</v>
+        <v>41.6143</v>
       </c>
       <c r="AJ87">
-        <v>14.6598</v>
+        <v>12.5514</v>
       </c>
       <c r="AK87">
         <v>-155.5752</v>
       </c>
       <c r="AL87">
+        <v>1.34032</v>
+      </c>
+      <c r="AM87">
         <v>1.33557</v>
-      </c>
-      <c r="AM87">
-        <v>1.34032</v>
       </c>
       <c r="AN87">
         <v>117.509</v>
@@ -30861,181 +30879,184 @@
         <v>0</v>
       </c>
       <c r="AQ87">
-        <v>90.71539256198346</v>
+        <v>91.16089876033058</v>
       </c>
       <c r="AR87">
-        <v>92.22623966942149</v>
+        <v>96.69421487603306</v>
       </c>
       <c r="AS87">
         <v>92.49418904958677</v>
       </c>
       <c r="AT87">
-        <v>96.69421487603306</v>
+        <v>92.22623966942149</v>
       </c>
       <c r="AU87">
-        <v>91.16089876033058</v>
+        <v>90.71539256198346</v>
       </c>
       <c r="AV87">
         <v>80.21694214876032</v>
       </c>
       <c r="AW87">
-        <v>73.6977471024873</v>
+        <v>77.64682901419455</v>
       </c>
       <c r="AX87">
-        <v>75.55996874593046</v>
+        <v>88.19182185180362</v>
       </c>
       <c r="AY87">
         <v>77.74938142987368</v>
       </c>
       <c r="AZ87">
-        <v>88.19182185180362</v>
+        <v>75.55996874593046</v>
       </c>
       <c r="BA87">
-        <v>77.64682901419455</v>
+        <v>73.6977471024873</v>
       </c>
       <c r="BB87">
         <v>66.87556973564266</v>
       </c>
       <c r="BC87">
-        <v>57.63185339690108</v>
+        <v>64.70128128724673</v>
       </c>
       <c r="BD87">
-        <v>59.84523986889154</v>
+        <v>77.25994487485102</v>
       </c>
       <c r="BE87">
         <v>64.00756108462456</v>
       </c>
       <c r="BF87">
-        <v>77.25994487485102</v>
+        <v>59.84523986889154</v>
       </c>
       <c r="BG87">
-        <v>64.70128128724673</v>
+        <v>57.63185339690108</v>
       </c>
       <c r="BH87">
         <v>55.01433998808105</v>
       </c>
       <c r="BI87">
-        <v>44.87222791651137</v>
+        <v>54.42950987700335</v>
       </c>
       <c r="BJ87">
-        <v>47.05262299664555</v>
+        <v>64.29137159895639</v>
       </c>
       <c r="BK87">
         <v>52.84837402161759</v>
       </c>
       <c r="BL87">
-        <v>64.29137159895639</v>
+        <v>47.05262299664555</v>
       </c>
       <c r="BM87">
-        <v>54.42950987700335</v>
+        <v>44.87222791651137</v>
       </c>
       <c r="BN87">
         <v>44.35508292955647</v>
       </c>
       <c r="BO87">
-        <v>34.71735149897586</v>
+        <v>45.70324622928434</v>
       </c>
       <c r="BP87">
-        <v>36.60930420209795</v>
+        <v>50.83871268077711</v>
       </c>
       <c r="BQ87">
         <v>43.05792626156043</v>
       </c>
       <c r="BR87">
-        <v>50.83871268077711</v>
+        <v>36.60930420209795</v>
       </c>
       <c r="BS87">
-        <v>45.70324622928434</v>
+        <v>34.71735149897586</v>
       </c>
       <c r="BT87">
         <v>36.05572279808826</v>
       </c>
       <c r="BU87">
+        <v>8.888442534027535</v>
+      </c>
+      <c r="BV87">
+        <v>1.987600327348177</v>
+      </c>
+      <c r="BW87">
+        <v>4.439929407806746</v>
+      </c>
+      <c r="BX87">
         <v>4.684268348652511</v>
       </c>
-      <c r="BV87">
+      <c r="BY87">
         <v>1.7</v>
       </c>
-      <c r="BW87">
+      <c r="BZ87">
         <v>6.836961476090551</v>
       </c>
-      <c r="BX87">
-        <v>8.888442534027535</v>
-      </c>
-      <c r="BY87">
-        <v>1.987600327348177</v>
-      </c>
-      <c r="BZ87">
+      <c r="CA87">
+        <v>7.901688898464847</v>
+      </c>
+      <c r="CB87">
+        <v>1.97817583917918</v>
+      </c>
+      <c r="CC87">
         <v>4.439929407806746</v>
       </c>
-      <c r="CA87">
+      <c r="CD87">
         <v>4.684268348652511</v>
       </c>
-      <c r="CB87">
+      <c r="CE87">
         <v>1.7</v>
       </c>
-      <c r="CC87">
+      <c r="CF87">
         <v>6.771843757947445</v>
       </c>
-      <c r="CD87">
-        <v>7.901688898464847</v>
-      </c>
-      <c r="CE87">
-        <v>1.97817583917918</v>
-      </c>
-      <c r="CF87">
-        <v>4.439929407806746</v>
-      </c>
       <c r="CG87">
+        <v>1.95</v>
+      </c>
+      <c r="CH87">
+        <v>4.407096549884062</v>
+      </c>
+      <c r="CI87">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="CJ87">
         <v>1.678700108616284</v>
       </c>
-      <c r="CH87">
+      <c r="CK87">
         <v>6.802940540677979</v>
       </c>
-      <c r="CI87">
+      <c r="CL87">
         <v>4.250000000000001</v>
-      </c>
-      <c r="CJ87">
-        <v>1.95</v>
-      </c>
-      <c r="CK87">
-        <v>4.407096549884062</v>
-      </c>
-      <c r="CL87">
-        <v>8.449999999999999</v>
       </c>
       <c r="CM87">
         <v>1.65</v>
       </c>
       <c r="CN87">
-        <v>5.501136246267674</v>
+        <v>4.407096549884062</v>
       </c>
       <c r="CO87">
-        <v>1.668673114842224</v>
+        <v>1.65</v>
       </c>
       <c r="CP87">
-        <v>5.423329235810786</v>
+        <v>4.36033255612459</v>
       </c>
       <c r="CQ87">
         <v>1.65</v>
       </c>
       <c r="CR87">
-        <v>4.407096549884062</v>
+        <v>5.501136246267674</v>
       </c>
       <c r="CS87">
-        <v>1.65</v>
+        <v>1.668673114842224</v>
       </c>
       <c r="CT87">
-        <v>4.36033255612459</v>
+        <v>5.423329235810786</v>
+      </c>
+      <c r="CU87">
+        <v>0</v>
       </c>
       <c r="CV87">
-        <v>5.102687195532556E-11</v>
+        <v>8.817375366897825E-11</v>
       </c>
       <c r="CW87">
         <v>0</v>
       </c>
       <c r="CX87">
-        <v>2.324108532819377E-11</v>
+        <v>2.126168193554637E-12</v>
       </c>
       <c r="CY87">
         <v>0</v>
@@ -31047,16 +31068,16 @@
         <v>0</v>
       </c>
       <c r="DB87">
-        <v>2.126168193554637E-12</v>
+        <v>2.324108532819377E-11</v>
       </c>
       <c r="DC87">
         <v>0</v>
       </c>
       <c r="DD87">
-        <v>8.817375366897825E-11</v>
+        <v>5.102687195532556E-11</v>
       </c>
       <c r="DE87">
-        <v>8.235004800642301</v>
+        <v>8.235004800642304</v>
       </c>
       <c r="DF87">
         <v>1.999999999999291</v>
@@ -31382,7 +31403,7 @@
         <v>0.02880820887799566</v>
       </c>
       <c r="CY88">
-        <v>0.06386250201035282</v>
+        <v>0.06386250200990777</v>
       </c>
       <c r="CZ88">
         <v>0.009615093913641038</v>
@@ -31492,7 +31513,7 @@
         <v>487.4587275388821</v>
       </c>
       <c r="Y89">
-        <v>0.9175649194676567</v>
+        <v>0.9175649194676565</v>
       </c>
       <c r="Z89">
         <v>0.02239</v>
@@ -31738,7 +31759,7 @@
         <v>0.02845040127216296</v>
       </c>
       <c r="DC89">
-        <v>0.02317051052219543</v>
+        <v>0.02317051052342207</v>
       </c>
       <c r="DD89">
         <v>0.003475712475962114</v>
@@ -31980,13 +32001,13 @@
         <v>36.09567997020669</v>
       </c>
       <c r="BU90">
-        <v>4.688884607934411</v>
+        <v>4.68888460793441</v>
       </c>
       <c r="BV90">
         <v>1.7</v>
       </c>
       <c r="BW90">
-        <v>7.842561896189439</v>
+        <v>7.842561896189437</v>
       </c>
       <c r="BX90">
         <v>6.802687787347497</v>
@@ -31998,13 +32019,13 @@
         <v>6.055711185916541</v>
       </c>
       <c r="CA90">
-        <v>4.688884607934411</v>
+        <v>4.68888460793441</v>
       </c>
       <c r="CB90">
         <v>1.7</v>
       </c>
       <c r="CC90">
-        <v>6.733805511494629</v>
+        <v>6.733805511494627</v>
       </c>
       <c r="CD90">
         <v>6.314112507430491</v>
@@ -32064,7 +32085,7 @@
         <v>0.001286111748159554</v>
       </c>
       <c r="CW90">
-        <v>0.009809317179031038</v>
+        <v>0.009809317176133618</v>
       </c>
       <c r="CX90">
         <v>0.001476590973745869</v>
@@ -32420,7 +32441,7 @@
         <v>0.002280651480778204</v>
       </c>
       <c r="DA91">
-        <v>0.1514751841136903</v>
+        <v>0.1514751841135027</v>
       </c>
       <c r="DB91">
         <v>0.0227742900682386</v>
@@ -32524,7 +32545,7 @@
         <v>504.0262049765095</v>
       </c>
       <c r="Y92">
-        <v>0.88665855977302</v>
+        <v>0.8866585597730202</v>
       </c>
       <c r="Z92">
         <v>0.02277</v>
@@ -32764,7 +32785,7 @@
         <v>0.003406597335447382</v>
       </c>
       <c r="DA92">
-        <v>0.17313397553186</v>
+        <v>0.1731339755316958</v>
       </c>
       <c r="DB92">
         <v>0.02603178251498885</v>
@@ -33212,7 +33233,7 @@
         <v>502.2320485103184</v>
       </c>
       <c r="Y94">
-        <v>0.8905343188978581</v>
+        <v>0.8905343188978579</v>
       </c>
       <c r="Z94">
         <v>0.02327</v>
@@ -33452,7 +33473,7 @@
         <v>0.002413762313380519</v>
       </c>
       <c r="DA94">
-        <v>0.1626901672321205</v>
+        <v>0.1626901672319458</v>
       </c>
       <c r="DB94">
         <v>0.02445633229762884</v>
@@ -33556,7 +33577,7 @@
         <v>509.1227173099002</v>
       </c>
       <c r="Y95">
-        <v>0.8782853731432959</v>
+        <v>0.8782853731432957</v>
       </c>
       <c r="Z95">
         <v>0.02419</v>
@@ -33724,7 +33745,7 @@
         <v>1.7</v>
       </c>
       <c r="CC95">
-        <v>6.213747672970003</v>
+        <v>6.213747672970004</v>
       </c>
       <c r="CD95">
         <v>6.271066488014005</v>
@@ -33778,7 +33799,7 @@
         <v>4.368352092036538</v>
       </c>
       <c r="CU95">
-        <v>0.01439137840899442</v>
+        <v>0.01439137841096933</v>
       </c>
       <c r="CV95">
         <v>0.002161351494596444</v>
@@ -33897,10 +33918,10 @@
         <v>345.4824404248026</v>
       </c>
       <c r="X96">
-        <v>504.0768612402673</v>
+        <v>504.0768612402674</v>
       </c>
       <c r="Y96">
-        <v>0.8865896437941025</v>
+        <v>0.8865896437941029</v>
       </c>
       <c r="Z96">
         <v>0.0228</v>
@@ -34134,7 +34155,7 @@
         <v>0.002931785615866986</v>
       </c>
       <c r="CY96">
-        <v>0.02249967059631057</v>
+        <v>0.02249967059757377</v>
       </c>
       <c r="CZ96">
         <v>0.003387556364205111</v>
@@ -34167,7 +34188,7 @@
         <v>3.0373</v>
       </c>
       <c r="DJ96">
-        <v>0.1935555555555555</v>
+        <v>0.1935555555555556</v>
       </c>
     </row>
     <row r="97" spans="1:114">
@@ -34241,7 +34262,7 @@
         <v>345.8524445293194</v>
       </c>
       <c r="X97">
-        <v>504.3922774794584</v>
+        <v>504.3922774794583</v>
       </c>
       <c r="Y97">
         <v>0.8860105514854454</v>
@@ -34472,7 +34493,7 @@
         <v>0.004327038783980687</v>
       </c>
       <c r="CW97">
-        <v>0.1737820396301909</v>
+        <v>0.1737820396303545</v>
       </c>
       <c r="CX97">
         <v>0.02612917387903913</v>
@@ -34549,52 +34570,52 @@
         <v>343.8551494873594</v>
       </c>
       <c r="X98">
-        <v>502.3048421043629</v>
+        <v>502.3048421043628</v>
       </c>
       <c r="Y98">
         <v>0.888816061142356</v>
       </c>
       <c r="Z98">
-        <v>0.0242573817160675</v>
+        <v>0.02416826549190355</v>
       </c>
       <c r="AA98">
-        <v>-0.2218147639745984</v>
+        <v>-0.2165741285959262</v>
       </c>
       <c r="AB98">
         <v>-0.1777596477932007</v>
       </c>
       <c r="AC98">
-        <v>-0.08964255161191782</v>
+        <v>-0.09488318699058995</v>
       </c>
       <c r="AD98">
-        <v>0.02863818268580812</v>
+        <v>0.02872729890997207</v>
       </c>
       <c r="AE98">
         <v>-0.4093297289587801</v>
       </c>
       <c r="AF98">
-        <v>12.1347604480638</v>
+        <v>12.19239622936052</v>
       </c>
       <c r="AG98">
-        <v>39.33943684619828</v>
+        <v>38.98556069384564</v>
       </c>
       <c r="AH98">
         <v>26.38015174810057</v>
       </c>
       <c r="AI98">
-        <v>28.42262263319597</v>
+        <v>28.77649878554861</v>
       </c>
       <c r="AJ98">
-        <v>10.56274094141159</v>
+        <v>10.50510516011488</v>
       </c>
       <c r="AK98">
         <v>-155.6903143340473</v>
       </c>
       <c r="AL98">
-        <v>1.338146865512825</v>
+        <v>1.338276712771959</v>
       </c>
       <c r="AM98">
-        <v>1.337418355728419</v>
+        <v>1.337288508469284</v>
       </c>
       <c r="AN98">
         <v>117.2169298656825</v>
@@ -34606,202 +34627,202 @@
         <v>0.1054676657977116</v>
       </c>
       <c r="AQ98">
-        <v>90.72235735059752</v>
+        <v>90.73453582613074</v>
       </c>
       <c r="AR98">
-        <v>92.96957794238851</v>
+        <v>93.09171569701162</v>
       </c>
       <c r="AS98">
         <v>92.75090269820171</v>
       </c>
       <c r="AT98">
-        <v>96.68481766020346</v>
+        <v>96.56267990558034</v>
       </c>
       <c r="AU98">
-        <v>91.0618130194466</v>
+        <v>91.04963454391337</v>
       </c>
       <c r="AV98">
         <v>80.17246049786444</v>
       </c>
       <c r="AW98">
-        <v>74.10171939275259</v>
+        <v>74.20967254271747</v>
       </c>
       <c r="AX98">
-        <v>77.71117883733255</v>
+        <v>78.05648652229854</v>
       </c>
       <c r="AY98">
         <v>79.06723081987006</v>
       </c>
       <c r="AZ98">
-        <v>88.03746072754905</v>
+        <v>87.69215304258306</v>
       </c>
       <c r="BA98">
-        <v>76.38738874143841</v>
+        <v>76.27943559147353</v>
       </c>
       <c r="BB98">
         <v>66.85323203703865</v>
       </c>
       <c r="BC98">
-        <v>58.44847870478909</v>
+        <v>58.64173045957036</v>
       </c>
       <c r="BD98">
-        <v>62.7771836478525</v>
+        <v>63.25323664020225</v>
       </c>
       <c r="BE98">
         <v>66.35121921267715</v>
       </c>
       <c r="BF98">
-        <v>76.70561716878407</v>
+        <v>76.22956417643434</v>
       </c>
       <c r="BG98">
-        <v>62.79731441356928</v>
+        <v>62.60406265878801</v>
       </c>
       <c r="BH98">
         <v>55.0345308367159</v>
       </c>
       <c r="BI98">
-        <v>46.11123246682713</v>
+        <v>46.37249285995268</v>
       </c>
       <c r="BJ98">
-        <v>50.34030984029719</v>
+        <v>50.81155284175411</v>
       </c>
       <c r="BK98">
         <v>56.12317665824106</v>
       </c>
       <c r="BL98">
-        <v>63.90400657476852</v>
+        <v>63.4327635733116</v>
       </c>
       <c r="BM98">
-        <v>52.31385207578332</v>
+        <v>52.05259168265777</v>
       </c>
       <c r="BN98">
         <v>44.37747424556635</v>
       </c>
       <c r="BO98">
-        <v>36.48473818038639</v>
+        <v>36.78505151088569</v>
       </c>
       <c r="BP98">
-        <v>39.99221279427201</v>
+        <v>40.38119167639054</v>
       </c>
       <c r="BQ98">
         <v>46.85704616628259</v>
       </c>
       <c r="BR98">
-        <v>50.93962206456504</v>
+        <v>50.55064318244651</v>
       </c>
       <c r="BS98">
-        <v>43.7130668394789</v>
+        <v>43.41275350897959</v>
       </c>
       <c r="BT98">
         <v>36.02822303024741</v>
       </c>
       <c r="BU98">
-        <v>5.293816641197174</v>
+        <v>5.408743061175143</v>
       </c>
       <c r="BV98">
+        <v>1.707861918785763</v>
+      </c>
+      <c r="BW98">
+        <v>7.629246680830535</v>
+      </c>
+      <c r="BX98">
+        <v>7.451561636277446</v>
+      </c>
+      <c r="BY98">
         <v>1.7</v>
       </c>
-      <c r="BW98">
-        <v>7.69477258485672</v>
-      </c>
-      <c r="BX98">
-        <v>7.566488056255415</v>
-      </c>
-      <c r="BY98">
-        <v>1.707861918785763</v>
-      </c>
       <c r="BZ98">
-        <v>5.674933208289609</v>
+        <v>5.740459112315794</v>
       </c>
       <c r="CA98">
-        <v>4.924782244345684</v>
+        <v>5.012734505372304</v>
       </c>
       <c r="CB98">
+        <v>1.707604288478922</v>
+      </c>
+      <c r="CC98">
+        <v>5.975116318512161</v>
+      </c>
+      <c r="CD98">
+        <v>6.041338492099719</v>
+      </c>
+      <c r="CE98">
         <v>1.7</v>
       </c>
-      <c r="CC98">
-        <v>6.038862147333717</v>
-      </c>
-      <c r="CD98">
-        <v>6.129290753126338</v>
-      </c>
-      <c r="CE98">
-        <v>1.707604288478922</v>
-      </c>
       <c r="CF98">
-        <v>4.774016408178429</v>
+        <v>4.837762236999986</v>
       </c>
       <c r="CG98">
-        <v>1.672546968197865</v>
+        <v>1.679963293945168</v>
       </c>
       <c r="CH98">
-        <v>7.662640759812757</v>
+        <v>7.597147333387774</v>
       </c>
       <c r="CI98">
-        <v>4.857064871675125</v>
+        <v>4.971877185015185</v>
       </c>
       <c r="CJ98">
-        <v>1.675868378534068</v>
+        <v>1.668452052786765</v>
       </c>
       <c r="CK98">
-        <v>5.647201715137044</v>
+        <v>5.712695141562027</v>
       </c>
       <c r="CL98">
-        <v>7.125258501920624</v>
+        <v>7.010446188580564</v>
       </c>
       <c r="CM98">
         <v>1.646483647597655</v>
       </c>
       <c r="CN98">
-        <v>7.555344155738466</v>
+        <v>7.525437196589023</v>
       </c>
       <c r="CO98">
-        <v>1.668028289475483</v>
+        <v>1.667517836258269</v>
       </c>
       <c r="CP98">
-        <v>7.117844461616098</v>
+        <v>7.088786102600009</v>
       </c>
       <c r="CQ98">
         <v>1.636257116701296</v>
       </c>
       <c r="CR98">
-        <v>5.081700469478278</v>
+        <v>5.111607428627721</v>
       </c>
       <c r="CS98">
-        <v>1.655955094989963</v>
+        <v>1.656465548207177</v>
       </c>
       <c r="CT98">
-        <v>5.031612405451115</v>
+        <v>5.060670764467205</v>
       </c>
       <c r="CU98">
-        <v>0.01516723844482721</v>
+        <v>0.01516723844495067</v>
       </c>
       <c r="CV98">
-        <v>0.002277056627984895</v>
+        <v>0.002277056629000351</v>
       </c>
       <c r="CW98">
-        <v>0.03925242791015481</v>
+        <v>0.0392524279099726</v>
       </c>
       <c r="CX98">
-        <v>0.005904013718438426</v>
+        <v>0.005904013717861223</v>
       </c>
       <c r="CY98">
-        <v>0.02664569103963783</v>
+        <v>0.02664569103986953</v>
       </c>
       <c r="CZ98">
         <v>0.004011749943406045</v>
       </c>
       <c r="DA98">
-        <v>0.1421500778913822</v>
+        <v>0.142150077891336</v>
       </c>
       <c r="DB98">
-        <v>0.02137290187915856</v>
+        <v>0.02137290187973576</v>
       </c>
       <c r="DC98">
-        <v>0.02460576162856525</v>
+        <v>0.02460576162848526</v>
       </c>
       <c r="DD98">
-        <v>0.003691366444078826</v>
+        <v>0.00369136644306337</v>
       </c>
       <c r="DE98">
         <v>8.297624488706868</v>
@@ -34857,52 +34878,52 @@
         <v>5.84955230584761</v>
       </c>
       <c r="X99">
-        <v>5.83690861105049</v>
+        <v>5.836908611050489</v>
       </c>
       <c r="Y99">
-        <v>0.008412926760996866</v>
+        <v>0.008412926760996852</v>
       </c>
       <c r="Z99">
-        <v>0.002667332182625862</v>
+        <v>0.002696591393200889</v>
       </c>
       <c r="AA99">
-        <v>0.07100962438772412</v>
+        <v>0.07605294290672961</v>
       </c>
       <c r="AB99">
         <v>0.003271712401694426</v>
       </c>
       <c r="AC99">
-        <v>0.06991239460291047</v>
+        <v>0.07474845011694919</v>
       </c>
       <c r="AD99">
-        <v>0.003802913575914723</v>
+        <v>0.003666351436245947</v>
       </c>
       <c r="AE99">
         <v>0.001146089815357421</v>
       </c>
       <c r="AF99">
-        <v>0.8923675880613411</v>
+        <v>0.9881275271585523</v>
       </c>
       <c r="AG99">
-        <v>6.232619141132575</v>
+        <v>6.475218407455801</v>
       </c>
       <c r="AH99">
         <v>0.6346710777069985</v>
       </c>
       <c r="AI99">
-        <v>5.921159749402247</v>
+        <v>6.330573416528439</v>
       </c>
       <c r="AJ99">
-        <v>1.360715983075824</v>
+        <v>1.211595876547635</v>
       </c>
       <c r="AK99">
         <v>0.5762538920709193</v>
       </c>
       <c r="AL99">
-        <v>0.0007299501341436947</v>
+        <v>0.0006765869350687146</v>
       </c>
       <c r="AM99">
-        <v>0.0007969422051178149</v>
+        <v>0.0006846076921077738</v>
       </c>
       <c r="AN99">
         <v>0.07071294192463824</v>
@@ -34914,202 +34935,205 @@
         <v>0.07027122576358025</v>
       </c>
       <c r="AQ99">
-        <v>0.108742834376653</v>
+        <v>0.1317507871735826</v>
       </c>
       <c r="AR99">
-        <v>1.93357013445366</v>
+        <v>2.029040639264564</v>
       </c>
       <c r="AS99">
         <v>0.442346223951917</v>
       </c>
       <c r="AT99">
-        <v>1.972045616989147</v>
+        <v>2.112226434523965</v>
       </c>
       <c r="AU99">
-        <v>0.4073068951343435</v>
+        <v>0.411097804740813</v>
       </c>
       <c r="AV99">
         <v>0.02531422802266616</v>
       </c>
       <c r="AW99">
-        <v>0.9618942921127385</v>
+        <v>1.131357251954475</v>
       </c>
       <c r="AX99">
-        <v>5.285270929955801</v>
+        <v>5.560648965935031</v>
       </c>
       <c r="AY99">
         <v>1.215213423183054</v>
       </c>
       <c r="AZ99">
-        <v>5.448682333327017</v>
+        <v>5.845412140529699</v>
       </c>
       <c r="BA99">
-        <v>1.577790444051299</v>
+        <v>1.626056154313825</v>
       </c>
       <c r="BB99">
         <v>0.04983919583589744</v>
       </c>
       <c r="BC99">
-        <v>1.93225415014833</v>
+        <v>2.198009183494446</v>
       </c>
       <c r="BD99">
-        <v>6.983029393166612</v>
+        <v>7.380665428068521</v>
       </c>
       <c r="BE99">
         <v>1.847937246035101</v>
       </c>
       <c r="BF99">
-        <v>7.428208783610668</v>
+        <v>7.958781067989066</v>
       </c>
       <c r="BG99">
-        <v>2.731333967347386</v>
+        <v>2.846496162349309</v>
       </c>
       <c r="BH99">
         <v>0.2442429698886229</v>
       </c>
       <c r="BI99">
-        <v>2.822198397767963</v>
+        <v>3.145555615765567</v>
       </c>
       <c r="BJ99">
-        <v>6.697315291984856</v>
+        <v>7.07511487708547</v>
       </c>
       <c r="BK99">
         <v>2.146028713443927</v>
       </c>
       <c r="BL99">
-        <v>7.379226719955914</v>
+        <v>7.913122697997881</v>
       </c>
       <c r="BM99">
-        <v>3.688438045361535</v>
+        <v>3.877892409787508</v>
       </c>
       <c r="BN99">
         <v>0.5692354675743994</v>
       </c>
       <c r="BO99">
-        <v>3.317200458188193</v>
+        <v>3.651062690769932</v>
       </c>
       <c r="BP99">
-        <v>5.450571744994718</v>
+        <v>5.717510828774419</v>
       </c>
       <c r="BQ99">
         <v>2.225904941353624</v>
       </c>
       <c r="BR99">
-        <v>6.133643213817223</v>
+        <v>6.598400966757882</v>
       </c>
       <c r="BS99">
-        <v>4.247746665952682</v>
+        <v>4.497201921156912</v>
       </c>
       <c r="BT99">
         <v>0.8142734100933987</v>
       </c>
       <c r="BU99">
-        <v>1.508983516398023</v>
+        <v>1.623075928406189</v>
       </c>
       <c r="BV99">
+        <v>0.0488114129771326</v>
+      </c>
+      <c r="BW99">
+        <v>1.627672477880274</v>
+      </c>
+      <c r="BX99">
+        <v>1.579265521527223</v>
+      </c>
+      <c r="BY99">
         <v>2.311113522186639E-16</v>
       </c>
-      <c r="BW99">
-        <v>1.536888622236996</v>
-      </c>
-      <c r="BX99">
-        <v>1.521226370780195</v>
-      </c>
-      <c r="BY99">
-        <v>0.0488114129771326</v>
-      </c>
       <c r="BZ99">
-        <v>1.563175490505224</v>
+        <v>1.560027530615914</v>
       </c>
       <c r="CA99">
-        <v>0.5881117855211893</v>
+        <v>0.7734488755167057</v>
       </c>
       <c r="CB99">
+        <v>0.04721189259982058</v>
+      </c>
+      <c r="CC99">
+        <v>0.7580695302344381</v>
+      </c>
+      <c r="CD99">
+        <v>0.6617311100019139</v>
+      </c>
+      <c r="CE99">
         <v>2.311113522186639E-16</v>
       </c>
-      <c r="CC99">
-        <v>0.7206044227722004</v>
-      </c>
-      <c r="CD99">
-        <v>0.690985662066303</v>
-      </c>
-      <c r="CE99">
-        <v>0.04721189259982058</v>
-      </c>
       <c r="CF99">
-        <v>0.6493032083578227</v>
+        <v>0.7294429710012644</v>
       </c>
       <c r="CG99">
-        <v>0.01165326339307063</v>
+        <v>0.04852633552735439</v>
       </c>
       <c r="CH99">
-        <v>1.53091804004827</v>
+        <v>1.622049563706448</v>
       </c>
       <c r="CI99">
-        <v>1.513770290802855</v>
+        <v>1.62745282508357</v>
       </c>
       <c r="CJ99">
-        <v>0.04989651780454465</v>
+        <v>0.01431278470652533</v>
       </c>
       <c r="CK99">
-        <v>1.555197740610101</v>
+        <v>1.551775525121864</v>
       </c>
       <c r="CL99">
-        <v>1.521140916797708</v>
+        <v>1.578747176385415</v>
       </c>
       <c r="CM99">
         <v>0.008758625682502139</v>
       </c>
       <c r="CN99">
-        <v>1.614653040836691</v>
+        <v>1.66574034806806</v>
       </c>
       <c r="CO99">
-        <v>0.01370977902719774</v>
+        <v>0.01404594830877352</v>
       </c>
       <c r="CP99">
-        <v>1.611975571289238</v>
+        <v>1.654599591485397</v>
       </c>
       <c r="CQ99">
         <v>0.01214758964358061</v>
       </c>
       <c r="CR99">
-        <v>1.643282340767387</v>
+        <v>1.640469641473711</v>
       </c>
       <c r="CS99">
-        <v>0.01173619244316366</v>
+        <v>0.01188258277979348</v>
       </c>
       <c r="CT99">
-        <v>1.619918250283125</v>
+        <v>1.616916748289395</v>
+      </c>
+      <c r="CU99">
+        <v>0.007322416890359874</v>
       </c>
       <c r="CV99">
-        <v>0.001098059322475674</v>
+        <v>0.001098059320194431</v>
       </c>
       <c r="CW99">
-        <v>0.0587600396857788</v>
+        <v>0.05876003968596822</v>
       </c>
       <c r="CX99">
-        <v>0.008834047139279263</v>
+        <v>0.008834047139697166</v>
       </c>
       <c r="CY99">
-        <v>0.01417095339002501</v>
+        <v>0.01417095339000691</v>
       </c>
       <c r="CZ99">
         <v>0.002133398020800182</v>
       </c>
       <c r="DA99">
-        <v>0.06187373172055256</v>
+        <v>0.06187373172053418</v>
       </c>
       <c r="DB99">
-        <v>0.009301789560653709</v>
+        <v>0.009301789559216938</v>
       </c>
       <c r="DC99">
-        <v>0.009259951248847483</v>
+        <v>0.009259951248654471</v>
       </c>
       <c r="DD99">
-        <v>0.001388866933464206</v>
+        <v>0.001388866936388023</v>
       </c>
       <c r="DE99">
-        <v>0.01135335458614977</v>
+        <v>0.01135335458614919</v>
       </c>
       <c r="DF99">
         <v>0.0006350697859150474</v>
@@ -35162,7 +35186,7 @@
         <v>0.8780138022572573</v>
       </c>
       <c r="Z100">
-        <v>0.02239</v>
+        <v>0.02177</v>
       </c>
       <c r="AA100">
         <v>-0.25205</v>
@@ -35174,7 +35198,7 @@
         <v>-0.25013</v>
       </c>
       <c r="AD100">
-        <v>0.02177</v>
+        <v>0.02277</v>
       </c>
       <c r="AE100">
         <v>-0.41074</v>
@@ -35198,7 +35222,7 @@
         <v>-157.1935</v>
       </c>
       <c r="AL100">
-        <v>1.33557</v>
+        <v>1.33606</v>
       </c>
       <c r="AM100">
         <v>1.33441</v>
@@ -35240,16 +35264,16 @@
         <v>77.74938142987368</v>
       </c>
       <c r="AZ100">
-        <v>75.60066414897774</v>
+        <v>75.55996874593046</v>
       </c>
       <c r="BA100">
-        <v>73.72541997655945</v>
+        <v>73.6977471024873</v>
       </c>
       <c r="BB100">
         <v>66.79092329730435</v>
       </c>
       <c r="BC100">
-        <v>57.63185339690108</v>
+        <v>57.64675208581644</v>
       </c>
       <c r="BD100">
         <v>59.83313468414779</v>
@@ -35258,91 +35282,91 @@
         <v>64.00756108462456</v>
       </c>
       <c r="BF100">
-        <v>59.86293206197855</v>
+        <v>59.84523986889154</v>
       </c>
       <c r="BG100">
-        <v>57.65047675804529</v>
+        <v>57.63185339690108</v>
       </c>
       <c r="BH100">
         <v>54.91842967818832</v>
       </c>
       <c r="BI100">
-        <v>44.87222791651137</v>
+        <v>44.89435799478196</v>
       </c>
       <c r="BJ100">
-        <v>47.05262299664555</v>
+        <v>47.29197726425643</v>
       </c>
       <c r="BK100">
         <v>52.84837402161759</v>
       </c>
       <c r="BL100">
-        <v>47.39098024599329</v>
+        <v>47.05262299664555</v>
       </c>
       <c r="BM100">
-        <v>44.89959932910921</v>
+        <v>44.87222791651137</v>
       </c>
       <c r="BN100">
         <v>44.09301621319418</v>
       </c>
       <c r="BO100">
-        <v>34.71735149897586</v>
+        <v>34.93963751474148</v>
       </c>
       <c r="BP100">
-        <v>36.60930420209795</v>
+        <v>37.27965365278381</v>
       </c>
       <c r="BQ100">
         <v>43.05792626156043</v>
       </c>
       <c r="BR100">
-        <v>37.40456830736763</v>
+        <v>36.60930420209795</v>
       </c>
       <c r="BS100">
-        <v>34.93304264167339</v>
+        <v>34.71735149897586</v>
       </c>
       <c r="BT100">
         <v>35.59834895413072</v>
       </c>
       <c r="BU100">
-        <v>4.684268348652511</v>
+        <v>4.687699274279154</v>
       </c>
       <c r="BV100">
         <v>1.7</v>
       </c>
       <c r="BW100">
-        <v>4.629066304987678</v>
+        <v>4.439929407806746</v>
       </c>
       <c r="BX100">
-        <v>4.688232497513162</v>
+        <v>4.684268348652511</v>
       </c>
       <c r="BY100">
         <v>1.7</v>
       </c>
       <c r="BZ100">
-        <v>4.439929407806746</v>
+        <v>4.442044616838785</v>
       </c>
       <c r="CA100">
-        <v>4.684268348652511</v>
+        <v>4.687699274279154</v>
       </c>
       <c r="CB100">
         <v>1.7</v>
       </c>
       <c r="CC100">
-        <v>4.443417448378051</v>
+        <v>4.439929407806746</v>
       </c>
       <c r="CD100">
-        <v>4.688232497513162</v>
+        <v>4.684268348652511</v>
       </c>
       <c r="CE100">
         <v>1.7</v>
       </c>
       <c r="CF100">
-        <v>4.439929407806746</v>
+        <v>4.442044616838785</v>
       </c>
       <c r="CG100">
         <v>1.649999999999999</v>
       </c>
       <c r="CH100">
-        <v>4.602445002387318</v>
+        <v>4.407096549884062</v>
       </c>
       <c r="CI100">
         <v>4.25</v>
@@ -35351,7 +35375,7 @@
         <v>1.649999999999999</v>
       </c>
       <c r="CK100">
-        <v>4.407096549884062</v>
+        <v>4.42944691807002</v>
       </c>
       <c r="CL100">
         <v>4.25</v>
@@ -35360,37 +35384,37 @@
         <v>1.626345596729059</v>
       </c>
       <c r="CN100">
-        <v>4.425494322671763</v>
+        <v>4.407096549884062</v>
       </c>
       <c r="CO100">
         <v>1.649999999999999</v>
       </c>
       <c r="CP100">
-        <v>4.383206588788624</v>
+        <v>4.36033255612459</v>
       </c>
       <c r="CQ100">
         <v>1.626345596729059</v>
       </c>
       <c r="CR100">
-        <v>4.407096549884062</v>
+        <v>4.413898503590675</v>
       </c>
       <c r="CS100">
         <v>1.649999999999999</v>
       </c>
       <c r="CT100">
-        <v>4.36033255612459</v>
+        <v>4.368352092036538</v>
       </c>
       <c r="CU100">
-        <v>0.006534817339776879</v>
+        <v>0</v>
       </c>
       <c r="CV100">
-        <v>5.102687195532556E-11</v>
+        <v>8.817375366897825E-11</v>
       </c>
       <c r="CW100">
         <v>0</v>
       </c>
       <c r="CX100">
-        <v>2.324108532819377E-11</v>
+        <v>2.126168193554637E-12</v>
       </c>
       <c r="CY100">
         <v>0</v>
@@ -35402,16 +35426,16 @@
         <v>0</v>
       </c>
       <c r="DB100">
-        <v>2.126168193554637E-12</v>
+        <v>2.324108532819377E-11</v>
       </c>
       <c r="DC100">
         <v>0</v>
       </c>
       <c r="DD100">
-        <v>8.817375366897825E-11</v>
+        <v>5.102687195532556E-11</v>
       </c>
       <c r="DE100">
-        <v>8.235004800642301</v>
+        <v>8.235004800642304</v>
       </c>
       <c r="DF100">
         <v>1.996236391477487</v>
@@ -35467,13 +35491,13 @@
         <v>0.03432</v>
       </c>
       <c r="AA101">
-        <v>-0.05855</v>
+        <v>-0.05802</v>
       </c>
       <c r="AB101">
         <v>-0.16989</v>
       </c>
       <c r="AC101">
-        <v>-0.05802</v>
+        <v>-0.05854</v>
       </c>
       <c r="AD101">
         <v>0.03665</v>
@@ -35482,7 +35506,7 @@
         <v>-0.40647</v>
       </c>
       <c r="AF101">
-        <v>12.8009</v>
+        <v>14.6598</v>
       </c>
       <c r="AG101">
         <v>42.6848</v>
@@ -35494,16 +35518,16 @@
         <v>42.1065</v>
       </c>
       <c r="AJ101">
-        <v>14.6598</v>
+        <v>12.7885</v>
       </c>
       <c r="AK101">
         <v>-153.2876</v>
       </c>
       <c r="AL101">
-        <v>1.33976</v>
+        <v>1.34032</v>
       </c>
       <c r="AM101">
-        <v>1.34032</v>
+        <v>1.33828</v>
       </c>
       <c r="AN101">
         <v>117.509</v>
@@ -35605,58 +35629,58 @@
         <v>40.40096828253988</v>
       </c>
       <c r="BU101">
-        <v>8.775715984845123</v>
+        <v>8.888442534027535</v>
       </c>
       <c r="BV101">
-        <v>1.7</v>
+        <v>1.987600327348177</v>
       </c>
       <c r="BW101">
         <v>8.965902701846154</v>
       </c>
       <c r="BX101">
-        <v>8.888442534027535</v>
+        <v>8.77536171212048</v>
       </c>
       <c r="BY101">
-        <v>1.987600327348177</v>
+        <v>1.7</v>
       </c>
       <c r="BZ101">
         <v>8.919313939334208</v>
       </c>
       <c r="CA101">
-        <v>6.336152168548018</v>
+        <v>7.901688898464847</v>
       </c>
       <c r="CB101">
+        <v>1.97817583917918</v>
+      </c>
+      <c r="CC101">
+        <v>6.733805511494627</v>
+      </c>
+      <c r="CD101">
+        <v>6.773402632254264</v>
+      </c>
+      <c r="CE101">
         <v>1.7</v>
       </c>
-      <c r="CC101">
+      <c r="CF101">
         <v>6.771843757947445</v>
       </c>
-      <c r="CD101">
-        <v>7.901688898464847</v>
-      </c>
-      <c r="CE101">
-        <v>1.97817583917918</v>
-      </c>
-      <c r="CF101">
-        <v>6.357839364724343</v>
-      </c>
       <c r="CG101">
-        <v>1.678700108616285</v>
+        <v>1.95</v>
       </c>
       <c r="CH101">
         <v>8.927485648266257</v>
       </c>
       <c r="CI101">
-        <v>8.350000000000001</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="CJ101">
-        <v>1.95</v>
+        <v>1.678700108616285</v>
       </c>
       <c r="CK101">
         <v>8.873837952092657</v>
       </c>
       <c r="CL101">
-        <v>8.449999999999999</v>
+        <v>8.350000000000001</v>
       </c>
       <c r="CM101">
         <v>1.65</v>
@@ -35766,25 +35790,25 @@
         <v>0.03971313473204363</v>
       </c>
       <c r="Z102">
-        <v>0.01193</v>
+        <v>0.01255</v>
       </c>
       <c r="AA102">
-        <v>0.1935</v>
+        <v>0.19403</v>
       </c>
       <c r="AB102">
         <v>0.01540999999999998</v>
       </c>
       <c r="AC102">
-        <v>0.19211</v>
+        <v>0.19159</v>
       </c>
       <c r="AD102">
-        <v>0.01488</v>
+        <v>0.01388</v>
       </c>
       <c r="AE102">
         <v>0.004269999999999996</v>
       </c>
       <c r="AF102">
-        <v>3.164200000000001</v>
+        <v>5.023100000000001</v>
       </c>
       <c r="AG102">
         <v>17.6658</v>
@@ -35796,16 +35820,16 @@
         <v>17.0901</v>
       </c>
       <c r="AJ102">
-        <v>6.299800000000001</v>
+        <v>4.428500000000001</v>
       </c>
       <c r="AK102">
         <v>3.905900000000003</v>
       </c>
       <c r="AL102">
-        <v>0.004190000000000138</v>
+        <v>0.004259999999999931</v>
       </c>
       <c r="AM102">
-        <v>0.00590999999999986</v>
+        <v>0.003869999999999818</v>
       </c>
       <c r="AN102">
         <v>0.3629999999999995</v>
@@ -35844,16 +35868,16 @@
         <v>4.499283760906366</v>
       </c>
       <c r="AZ102">
-        <v>17.53483526500845</v>
+        <v>17.57553066805573</v>
       </c>
       <c r="BA102">
-        <v>6.639861961192864</v>
+        <v>6.667534835265016</v>
       </c>
       <c r="BB102">
         <v>1.030407605156924</v>
       </c>
       <c r="BC102">
-        <v>10.72891835518473</v>
+        <v>10.71401966626937</v>
       </c>
       <c r="BD102">
         <v>24.71785607866509</v>
@@ -35862,139 +35886,139 @@
         <v>7.185823897497016</v>
       </c>
       <c r="BF102">
-        <v>24.69271454112037</v>
+        <v>24.71040673420738</v>
       </c>
       <c r="BG102">
-        <v>11.12838945172825</v>
+        <v>11.14701281287246</v>
       </c>
       <c r="BH102">
         <v>2.677108164481524</v>
       </c>
       <c r="BI102">
-        <v>14.27390048453223</v>
+        <v>14.25177040626163</v>
       </c>
       <c r="BJ102">
-        <v>25.54626351099515</v>
+        <v>25.30690924338427</v>
       </c>
       <c r="BK102">
         <v>8.817089079388751</v>
       </c>
       <c r="BL102">
-        <v>25.2306187103988</v>
+        <v>25.56897595974654</v>
       </c>
       <c r="BM102">
-        <v>14.48937756243011</v>
+        <v>14.51674897502795</v>
       </c>
       <c r="BN102">
         <v>4.012532612746931</v>
       </c>
       <c r="BO102">
-        <v>16.33200918627024</v>
+        <v>16.10972317050462</v>
       </c>
       <c r="BP102">
-        <v>22.448172056359</v>
+        <v>21.77782260567314</v>
       </c>
       <c r="BQ102">
         <v>9.486530941592697</v>
       </c>
       <c r="BR102">
-        <v>21.66221836012663</v>
+        <v>22.45748246539631</v>
       </c>
       <c r="BS102">
-        <v>16.29050027931227</v>
+        <v>16.5061914220098</v>
       </c>
       <c r="BT102">
         <v>4.802619328409158</v>
       </c>
       <c r="BU102">
-        <v>4.091447636192612</v>
+        <v>4.20074325974838</v>
       </c>
       <c r="BV102">
-        <v>0</v>
+        <v>0.2876003273481771</v>
       </c>
       <c r="BW102">
-        <v>4.336836396858477</v>
+        <v>4.525973294039408</v>
       </c>
       <c r="BX102">
-        <v>4.200210036514372</v>
+        <v>4.091093363467969</v>
       </c>
       <c r="BY102">
-        <v>0.2876003273481771</v>
+        <v>0</v>
       </c>
       <c r="BZ102">
-        <v>4.479384531527462</v>
+        <v>4.477269322495423</v>
       </c>
       <c r="CA102">
-        <v>1.651883819895508</v>
+        <v>3.213989624185692</v>
       </c>
       <c r="CB102">
-        <v>0</v>
+        <v>0.27817583917918</v>
       </c>
       <c r="CC102">
-        <v>2.328426309569394</v>
+        <v>2.293876103687881</v>
       </c>
       <c r="CD102">
-        <v>3.213456400951684</v>
+        <v>2.089134283601753</v>
       </c>
       <c r="CE102">
-        <v>0.27817583917918</v>
+        <v>0</v>
       </c>
       <c r="CF102">
-        <v>1.917909956917597</v>
+        <v>2.32979914110866</v>
       </c>
       <c r="CG102">
+        <v>0.3000000000000009</v>
+      </c>
+      <c r="CH102">
+        <v>4.520389098382195</v>
+      </c>
+      <c r="CI102">
+        <v>4.199999999999999</v>
+      </c>
+      <c r="CJ102">
         <v>0.02870010861628591</v>
       </c>
-      <c r="CH102">
-        <v>4.325040645878939</v>
-      </c>
-      <c r="CI102">
+      <c r="CK102">
+        <v>4.444391034022638</v>
+      </c>
+      <c r="CL102">
         <v>4.100000000000001</v>
-      </c>
-      <c r="CJ102">
-        <v>0.3000000000000009</v>
-      </c>
-      <c r="CK102">
-        <v>4.466741402208595</v>
-      </c>
-      <c r="CL102">
-        <v>4.199999999999999</v>
       </c>
       <c r="CM102">
         <v>0.02365440327094093</v>
       </c>
       <c r="CN102">
-        <v>4.452146129610591</v>
+        <v>4.470543902398291</v>
       </c>
       <c r="CO102">
         <v>0.02870010861628502</v>
       </c>
       <c r="CP102">
-        <v>4.387340714544277</v>
+        <v>4.410214747208311</v>
       </c>
       <c r="CQ102">
         <v>0.02365440327094093</v>
       </c>
       <c r="CR102">
-        <v>4.466741402208595</v>
+        <v>4.459939448501983</v>
       </c>
       <c r="CS102">
         <v>0.02870010861628502</v>
       </c>
       <c r="CT102">
-        <v>4.410214747208311</v>
+        <v>4.402195211296362</v>
       </c>
       <c r="CU102">
-        <v>0.03910151864374253</v>
+        <v>0.04563633598351941</v>
       </c>
       <c r="CV102">
-        <v>0.006853520453078413</v>
+        <v>0.006853520415931532</v>
       </c>
       <c r="CW102">
         <v>0.1915856491336901</v>
       </c>
       <c r="CX102">
-        <v>0.02880820885475457</v>
+        <v>0.02880820887586949</v>
       </c>
       <c r="CY102">
         <v>0.07166481539347261</v>
@@ -36006,16 +36030,16 @@
         <v>0.1892203203533636</v>
       </c>
       <c r="DB102">
-        <v>0.02845040127003679</v>
+        <v>0.02845040124892187</v>
       </c>
       <c r="DC102">
         <v>0.0480954995041251</v>
       </c>
       <c r="DD102">
-        <v>0.007223331800930074</v>
+        <v>0.007223331838076956</v>
       </c>
       <c r="DE102">
-        <v>0.07048455915466079</v>
+        <v>0.07048455915465723</v>
       </c>
       <c r="DF102">
         <v>0.003763608521804018</v>
@@ -36098,7 +36122,7 @@
         <v>345.8524445293194</v>
       </c>
       <c r="X103">
-        <v>504.3922774794584</v>
+        <v>504.3922774794583</v>
       </c>
       <c r="Y103">
         <v>0.8860105514854454</v>
@@ -36329,7 +36353,7 @@
         <v>0.004327038783980687</v>
       </c>
       <c r="CW103">
-        <v>0.1737820396301909</v>
+        <v>0.1737820396303545</v>
       </c>
       <c r="CX103">
         <v>0.02612917387903913</v>
@@ -36376,343 +36400,343 @@
         <v>121</v>
       </c>
       <c r="B104">
-        <v>-2939.662316</v>
+        <v>-2939.660725</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.001590999999734777</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9983524998335724</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0.1854395838921781</v>
       </c>
       <c r="F104">
-        <v>0.1474133219413452</v>
+        <v>0.02733626508096675</v>
       </c>
       <c r="G104">
-        <v>-2939.789216</v>
+        <v>-2939.786373</v>
       </c>
       <c r="H104">
-        <v>0.164918</v>
+        <v>0.164812</v>
       </c>
       <c r="I104">
-        <v>-2939.613812</v>
+        <v>-2939.610889</v>
       </c>
       <c r="J104">
-        <v>0.048504</v>
+        <v>0.049836</v>
       </c>
       <c r="K104">
-        <v>0.046649</v>
+        <v>0.047669</v>
       </c>
       <c r="L104">
-        <v>-2939.660461</v>
+        <v>-2939.658558</v>
       </c>
       <c r="M104">
         <v>298.15</v>
       </c>
       <c r="N104">
-        <v>-0.3121</v>
+        <v>-0.31568</v>
       </c>
       <c r="O104">
-        <v>-0.0021</v>
+        <v>-0.00515</v>
       </c>
       <c r="P104">
-        <v>-0.1571</v>
+        <v>-0.160415</v>
       </c>
       <c r="Q104">
-        <v>0.31</v>
+        <v>0.31053</v>
       </c>
       <c r="R104">
-        <v>0.03981</v>
+        <v>0.04143</v>
       </c>
       <c r="S104">
-        <v>116.613</v>
+        <v>117.866</v>
       </c>
       <c r="T104">
-        <v>62.9607</v>
+        <v>77.3913</v>
       </c>
       <c r="U104">
-        <v>1.1393</v>
+        <v>3.7713</v>
       </c>
       <c r="V104">
-        <v>1325.273</v>
+        <v>1428.498</v>
       </c>
       <c r="W104">
-        <v>345.8524445293194</v>
+        <v>349.0125079906796</v>
       </c>
       <c r="X104">
-        <v>504.3922774794584</v>
+        <v>505.5106451857053</v>
       </c>
       <c r="Y104">
-        <v>0.8860105514854454</v>
+        <v>0.879285685933295</v>
       </c>
       <c r="Z104">
-        <v>0.03011</v>
+        <v>0.02177</v>
       </c>
       <c r="AA104">
-        <v>-0.05855</v>
+        <v>-0.05802</v>
       </c>
       <c r="AB104">
-        <v>-0.17611</v>
+        <v>-0.16989</v>
       </c>
       <c r="AC104">
-        <v>-0.25013</v>
+        <v>-0.24973</v>
       </c>
       <c r="AD104">
-        <v>0.02277</v>
+        <v>0.02503</v>
       </c>
       <c r="AE104">
-        <v>-0.41</v>
+        <v>-0.40802</v>
       </c>
       <c r="AF104">
-        <v>10.2683</v>
+        <v>14.6598</v>
       </c>
       <c r="AG104">
-        <v>25.019</v>
+        <v>28.669</v>
       </c>
       <c r="AH104">
-        <v>26.4212</v>
+        <v>25.798</v>
       </c>
       <c r="AI104">
-        <v>41.809</v>
+        <v>41.6143</v>
       </c>
       <c r="AJ104">
-        <v>12.7885</v>
+        <v>12.5514</v>
       </c>
       <c r="AK104">
-        <v>-155.3219</v>
+        <v>-155.5752</v>
       </c>
       <c r="AL104">
-        <v>1.33731</v>
+        <v>1.34032</v>
       </c>
       <c r="AM104">
-        <v>1.33828</v>
+        <v>1.33557</v>
       </c>
       <c r="AN104">
-        <v>117.185</v>
+        <v>117.509</v>
       </c>
       <c r="AO104">
-        <v>0.154</v>
+        <v>0</v>
       </c>
       <c r="AP104">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="AQ104">
-        <v>90.90263429752066</v>
+        <v>91.16089876033058</v>
       </c>
       <c r="AR104">
-        <v>97.40767045454545</v>
+        <v>96.69421487603306</v>
       </c>
       <c r="AS104">
-        <v>92.62332128099173</v>
+        <v>92.49418904958677</v>
       </c>
       <c r="AT104">
-        <v>92.17135847107438</v>
+        <v>92.22623966942149</v>
       </c>
       <c r="AU104">
-        <v>90.68956611570248</v>
+        <v>90.71539256198346</v>
       </c>
       <c r="AV104">
-        <v>80.1459194214876</v>
+        <v>80.21694214876032</v>
       </c>
       <c r="AW104">
-        <v>76.25830186222164</v>
+        <v>77.64682901419455</v>
       </c>
       <c r="AX104">
-        <v>89.83266050266961</v>
+        <v>88.19182185180362</v>
       </c>
       <c r="AY104">
-        <v>78.68700351608283</v>
+        <v>77.74938142987368</v>
       </c>
       <c r="AZ104">
-        <v>75.60066414897774</v>
+        <v>75.55996874593046</v>
       </c>
       <c r="BA104">
-        <v>73.72541997655945</v>
+        <v>73.6977471024873</v>
       </c>
       <c r="BB104">
-        <v>66.85766375830187</v>
+        <v>66.87556973564266</v>
       </c>
       <c r="BC104">
-        <v>62.81845947556614</v>
+        <v>64.70128128724673</v>
       </c>
       <c r="BD104">
-        <v>78.76843712753278</v>
+        <v>77.25994487485102</v>
       </c>
       <c r="BE104">
-        <v>65.69111293206198</v>
+        <v>64.00756108462456</v>
       </c>
       <c r="BF104">
-        <v>59.86293206197855</v>
+        <v>59.84523986889154</v>
       </c>
       <c r="BG104">
-        <v>57.65047675804529</v>
+        <v>57.63185339690108</v>
       </c>
       <c r="BH104">
-        <v>54.95846990464839</v>
+        <v>55.01433998808105</v>
       </c>
       <c r="BI104">
-        <v>52.51176388371226</v>
+        <v>54.42950987700335</v>
       </c>
       <c r="BJ104">
-        <v>65.61975866567276</v>
+        <v>64.29137159895639</v>
       </c>
       <c r="BK104">
-        <v>55.36945583302274</v>
+        <v>52.84837402161759</v>
       </c>
       <c r="BL104">
-        <v>47.39098024599329</v>
+        <v>47.05262299664555</v>
       </c>
       <c r="BM104">
-        <v>44.89959932910921</v>
+        <v>44.87222791651137</v>
       </c>
       <c r="BN104">
-        <v>44.09301621319418</v>
+        <v>44.35508292955647</v>
       </c>
       <c r="BO104">
-        <v>43.9920706349699</v>
+        <v>45.70324622928434</v>
       </c>
       <c r="BP104">
-        <v>52.30859350754143</v>
+        <v>50.83871268077711</v>
       </c>
       <c r="BQ104">
-        <v>46.21143938923717</v>
+        <v>43.05792626156043</v>
       </c>
       <c r="BR104">
-        <v>37.40456830736763</v>
+        <v>36.60930420209795</v>
       </c>
       <c r="BS104">
-        <v>34.93304264167339</v>
+        <v>34.71735149897586</v>
       </c>
       <c r="BT104">
-        <v>35.60106449009993</v>
+        <v>36.05572279808826</v>
       </c>
       <c r="BU104">
-        <v>8.775715984845123</v>
+        <v>8.888442534027535</v>
       </c>
       <c r="BV104">
-        <v>1.7</v>
+        <v>1.987600327348177</v>
       </c>
       <c r="BW104">
-        <v>4.629066304987678</v>
+        <v>4.439929407806746</v>
       </c>
       <c r="BX104">
-        <v>4.688963367534203</v>
+        <v>4.684268348652511</v>
       </c>
       <c r="BY104">
         <v>1.7</v>
       </c>
       <c r="BZ104">
-        <v>8.919313939334208</v>
+        <v>6.836961476090551</v>
       </c>
       <c r="CA104">
-        <v>6.276474250859666</v>
+        <v>7.901688898464847</v>
       </c>
       <c r="CB104">
-        <v>1.7</v>
+        <v>1.97817583917918</v>
       </c>
       <c r="CC104">
-        <v>4.443417448378051</v>
+        <v>4.439929407806746</v>
       </c>
       <c r="CD104">
-        <v>4.688963367534203</v>
+        <v>4.684268348652511</v>
       </c>
       <c r="CE104">
         <v>1.7</v>
       </c>
       <c r="CF104">
-        <v>6.215292004899216</v>
+        <v>6.771843757947445</v>
       </c>
       <c r="CG104">
-        <v>1.678700108616284</v>
+        <v>1.95</v>
       </c>
       <c r="CH104">
-        <v>4.602445002387318</v>
+        <v>4.407096549884062</v>
       </c>
       <c r="CI104">
-        <v>8.350000000000001</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="CJ104">
         <v>1.678700108616284</v>
       </c>
       <c r="CK104">
-        <v>8.873837952092657</v>
+        <v>6.802940540677979</v>
       </c>
       <c r="CL104">
-        <v>4.25</v>
+        <v>4.250000000000001</v>
       </c>
       <c r="CM104">
-        <v>1.62634559672906</v>
+        <v>1.65</v>
       </c>
       <c r="CN104">
-        <v>4.425494322671763</v>
+        <v>4.407096549884062</v>
       </c>
       <c r="CO104">
-        <v>1.649999999999999</v>
+        <v>1.65</v>
       </c>
       <c r="CP104">
-        <v>4.383206588788624</v>
+        <v>4.36033255612459</v>
       </c>
       <c r="CQ104">
         <v>1.65</v>
       </c>
       <c r="CR104">
-        <v>8.873837952092657</v>
+        <v>5.501136246267674</v>
       </c>
       <c r="CS104">
-        <v>1.678700108616284</v>
+        <v>1.668673114842224</v>
       </c>
       <c r="CT104">
-        <v>8.770547303332901</v>
+        <v>5.423329235810786</v>
       </c>
       <c r="CU104">
-        <v>0.02884800353295713</v>
+        <v>0</v>
       </c>
       <c r="CV104">
-        <v>0.004327038783980687</v>
+        <v>8.817375366897825E-11</v>
       </c>
       <c r="CW104">
-        <v>0.1737820396301909</v>
+        <v>0</v>
       </c>
       <c r="CX104">
-        <v>0.02612917387903913</v>
+        <v>2.126168193554637E-12</v>
       </c>
       <c r="CY104">
-        <v>0.02297297680395831</v>
+        <v>0</v>
       </c>
       <c r="CZ104">
-        <v>0.003458822284003244</v>
+        <v>1.04398875921677E-10</v>
       </c>
       <c r="DA104">
-        <v>0.01957028498909754</v>
+        <v>0</v>
       </c>
       <c r="DB104">
-        <v>0.002945686997722472</v>
+        <v>2.324108532819377E-11</v>
       </c>
       <c r="DC104">
-        <v>0.01567234446546164</v>
+        <v>0</v>
       </c>
       <c r="DD104">
-        <v>0.002353718556014814</v>
+        <v>5.102687195532556E-11</v>
       </c>
       <c r="DE104">
-        <v>8.300932379461056</v>
+        <v>8.235004800642304</v>
       </c>
       <c r="DF104">
-        <v>1.997488059873858</v>
+        <v>1.999999999999291</v>
       </c>
       <c r="DG104">
-        <v>1.91714</v>
+        <v>1.91761</v>
       </c>
       <c r="DH104">
-        <v>-0.37962</v>
+        <v>-0.38014</v>
       </c>
       <c r="DI104">
-        <v>2.78636</v>
+        <v>1.406</v>
       </c>
       <c r="DJ104">
-        <v>0.1784166666666667</v>
+        <v>0.09044444444444444</v>
       </c>
     </row>
     <row r="105" spans="1:114">
@@ -37023,7 +37047,7 @@
         <v>0.008243269275971965</v>
       </c>
       <c r="CY105">
-        <v>0.03625585063658662</v>
+        <v>0.03625585063580269</v>
       </c>
       <c r="CZ105">
         <v>0.005455473813741799</v>
@@ -37292,7 +37316,7 @@
         <v>2.0974984810977</v>
       </c>
       <c r="BZ106">
-        <v>5.641593436773089</v>
+        <v>5.641593436773087</v>
       </c>
       <c r="CA106">
         <v>4.679113733817573</v>
@@ -37310,7 +37334,7 @@
         <v>2.0974984810977</v>
       </c>
       <c r="CF106">
-        <v>5.641593436773089</v>
+        <v>5.641593436773087</v>
       </c>
       <c r="CG106">
         <v>1.691019781802777</v>
@@ -37379,13 +37403,13 @@
         <v>0.01874841287413621</v>
       </c>
       <c r="DC106">
-        <v>0.09443367795326105</v>
+        <v>0.09443367795296008</v>
       </c>
       <c r="DD106">
         <v>0.0141059904275325</v>
       </c>
       <c r="DE106">
-        <v>8.237388289562825</v>
+        <v>8.237388289562828</v>
       </c>
       <c r="DF106">
         <v>1.995886986421356</v>
@@ -37675,7 +37699,7 @@
         <v>0.008059268748958714</v>
       </c>
       <c r="CY107">
-        <v>0.03476902141474117</v>
+        <v>0.03476902141399667</v>
       </c>
       <c r="CZ107">
         <v>0.005231759538609092</v>
@@ -37687,7 +37711,7 @@
         <v>0.002111484299735095</v>
       </c>
       <c r="DC107">
-        <v>0.01363851741318616</v>
+        <v>0.01363851741317102</v>
       </c>
       <c r="DD107">
         <v>0.00204499735258807</v>
@@ -37908,7 +37932,7 @@
         <v>0.1139606397593033</v>
       </c>
       <c r="BZ108">
-        <v>0.007757841448920011</v>
+        <v>0.007757841448919461</v>
       </c>
       <c r="CA108">
         <v>0.3302276710494828</v>
@@ -37926,7 +37950,7 @@
         <v>0.1139606397593033</v>
       </c>
       <c r="CF108">
-        <v>0.007757841448920011</v>
+        <v>0.007757841448919461</v>
       </c>
       <c r="CG108">
         <v>0.07734570895062463</v>
@@ -37983,7 +38007,7 @@
         <v>0.001130575649732598</v>
       </c>
       <c r="CY108">
-        <v>0.009135696189654367</v>
+        <v>0.009135696189412033</v>
       </c>
       <c r="CZ108">
         <v>0.001374593410509117</v>
@@ -37995,13 +38019,13 @@
         <v>0.005415300827141674</v>
       </c>
       <c r="DC108">
-        <v>0.02629873042641597</v>
+        <v>0.02629873042632293</v>
       </c>
       <c r="DD108">
         <v>0.003925839164531468</v>
       </c>
       <c r="DE108">
-        <v>0.009759629766272995</v>
+        <v>0.009759629766274093</v>
       </c>
       <c r="DF108">
         <v>0.0002084785059287164</v>
@@ -38512,7 +38536,7 @@
         <v>2.0974984810977</v>
       </c>
       <c r="BZ110">
-        <v>5.641593436773089</v>
+        <v>5.641593436773087</v>
       </c>
       <c r="CA110">
         <v>5.747386068467839</v>
@@ -38530,7 +38554,7 @@
         <v>2.0974984810977</v>
       </c>
       <c r="CF110">
-        <v>5.641593436773089</v>
+        <v>5.641593436773087</v>
       </c>
       <c r="CG110">
         <v>1.941229828747882</v>
@@ -38587,7 +38611,7 @@
         <v>0.008243269275971965</v>
       </c>
       <c r="CY110">
-        <v>0.03625585063658662</v>
+        <v>0.03625585063580269</v>
       </c>
       <c r="CZ110">
         <v>0.005455473813741799</v>
@@ -38599,13 +38623,13 @@
         <v>0.01874841287413621</v>
       </c>
       <c r="DC110">
-        <v>0.09443367795326105</v>
+        <v>0.09443367795296008</v>
       </c>
       <c r="DD110">
         <v>0.0141059904275325</v>
       </c>
       <c r="DE110">
-        <v>8.237388289562825</v>
+        <v>8.237388289562828</v>
       </c>
       <c r="DF110">
         <v>1.996561405435199</v>
@@ -38814,7 +38838,7 @@
         <v>0.3686577757309342</v>
       </c>
       <c r="BZ111">
-        <v>0.02509628393691621</v>
+        <v>0.02509628393691443</v>
       </c>
       <c r="CA111">
         <v>1.068272334650266</v>
@@ -38832,7 +38856,7 @@
         <v>0.3686577757309342</v>
       </c>
       <c r="CF111">
-        <v>0.02509628393691621</v>
+        <v>0.02509628393691443</v>
       </c>
       <c r="CG111">
         <v>0.250210046945105</v>
@@ -38889,7 +38913,7 @@
         <v>0.003657363675794474</v>
       </c>
       <c r="CY111">
-        <v>0.02955358485302468</v>
+        <v>0.02955358485224074</v>
       </c>
       <c r="CZ111">
         <v>0.004446750652883382</v>
@@ -38901,13 +38925,13 @@
         <v>0.0175182656228021</v>
       </c>
       <c r="DC111">
-        <v>0.08507526356492282</v>
+        <v>0.08507526356462185</v>
       </c>
       <c r="DD111">
         <v>0.01269992110723833</v>
       </c>
       <c r="DE111">
-        <v>0.03157198317937571</v>
+        <v>0.03157198317937926</v>
       </c>
       <c r="DF111">
         <v>0.0006744190138430195</v>
@@ -39227,7 +39251,7 @@
         <v>0.008243269275971965</v>
       </c>
       <c r="CY112">
-        <v>0.03625585063658662</v>
+        <v>0.03625585063580269</v>
       </c>
       <c r="CZ112">
         <v>0.005455473813741799</v>
@@ -39571,7 +39595,7 @@
         <v>0.008243269275971965</v>
       </c>
       <c r="CY113">
-        <v>0.03625585063658662</v>
+        <v>0.03625585063580269</v>
       </c>
       <c r="CZ113">
         <v>0.005455473813741799</v>
@@ -39681,7 +39705,7 @@
         <v>522.0202462238508</v>
       </c>
       <c r="Y114">
-        <v>0.8863997779083271</v>
+        <v>0.886399777908327</v>
       </c>
       <c r="Z114">
         <v>0.37935</v>
@@ -39909,7 +39933,7 @@
         <v>0.01424838643996654</v>
       </c>
       <c r="CW114">
-        <v>0.2007948871940912</v>
+        <v>0.2007948871939496</v>
       </c>
       <c r="CX114">
         <v>0.03014661611718433</v>
@@ -39989,7 +40013,7 @@
         <v>522.0202462238508</v>
       </c>
       <c r="Y115">
-        <v>0.8863997779083271</v>
+        <v>0.886399777908327</v>
       </c>
       <c r="Z115">
         <v>0.37935</v>
@@ -40217,7 +40241,7 @@
         <v>0.01424838643996654</v>
       </c>
       <c r="CW115">
-        <v>0.2007948871940912</v>
+        <v>0.2007948871939496</v>
       </c>
       <c r="CX115">
         <v>0.03014661611718433</v>
@@ -40599,7 +40623,7 @@
         <v>522.0202462238508</v>
       </c>
       <c r="Y117">
-        <v>0.8863997779083271</v>
+        <v>0.886399777908327</v>
       </c>
       <c r="Z117">
         <v>0.37935</v>
@@ -40827,7 +40851,7 @@
         <v>0.01424838643996654</v>
       </c>
       <c r="CW117">
-        <v>0.2007948871940912</v>
+        <v>0.2007948871939496</v>
       </c>
       <c r="CX117">
         <v>0.03014661611718433</v>
@@ -40901,7 +40925,7 @@
         <v>522.0202462238508</v>
       </c>
       <c r="Y118">
-        <v>0.8863997779083271</v>
+        <v>0.886399777908327</v>
       </c>
       <c r="Z118">
         <v>0.37935</v>
@@ -41129,7 +41153,7 @@
         <v>0.01424838643996654</v>
       </c>
       <c r="CW118">
-        <v>0.2007948871940912</v>
+        <v>0.2007948871939496</v>
       </c>
       <c r="CX118">
         <v>0.03014661611718433</v>
@@ -41541,7 +41565,7 @@
         <v>522.0202462238508</v>
       </c>
       <c r="Y120">
-        <v>0.8863997779083271</v>
+        <v>0.886399777908327</v>
       </c>
       <c r="Z120">
         <v>0.37935</v>
@@ -41769,7 +41793,7 @@
         <v>0.01424838643996654</v>
       </c>
       <c r="CW120">
-        <v>0.2007948871940912</v>
+        <v>0.2007948871939496</v>
       </c>
       <c r="CX120">
         <v>0.03014661611718433</v>
@@ -41885,7 +41909,7 @@
         <v>522.0202462238508</v>
       </c>
       <c r="Y121">
-        <v>0.8863997779083271</v>
+        <v>0.886399777908327</v>
       </c>
       <c r="Z121">
         <v>0.37935</v>
@@ -42113,7 +42137,7 @@
         <v>0.01424838643996654</v>
       </c>
       <c r="CW121">
-        <v>0.2007948871940912</v>
+        <v>0.2007948871939496</v>
       </c>
       <c r="CX121">
         <v>0.03014661611718433</v>
@@ -42475,7 +42499,7 @@
         <v>0.001482993692936764</v>
       </c>
       <c r="DC122">
-        <v>0.004782117586790818</v>
+        <v>0.004782117580847487</v>
       </c>
       <c r="DD122">
         <v>0.0007171831019081697</v>
@@ -42783,7 +42807,7 @@
         <v>0.001482993692936764</v>
       </c>
       <c r="DC123">
-        <v>0.004782117586790818</v>
+        <v>0.004782117580847487</v>
       </c>
       <c r="DD123">
         <v>0.0007171831019081697</v>
@@ -43393,7 +43417,7 @@
         <v>0.001482993692936764</v>
       </c>
       <c r="DC125">
-        <v>0.004782117586790818</v>
+        <v>0.004782117580847487</v>
       </c>
       <c r="DD125">
         <v>0.0007171831019081697</v>
@@ -43695,7 +43719,7 @@
         <v>0.001482993692936764</v>
       </c>
       <c r="DC126">
-        <v>0.004782117586790818</v>
+        <v>0.004782117580847487</v>
       </c>
       <c r="DD126">
         <v>0.0007171831019081697</v>
@@ -44335,7 +44359,7 @@
         <v>0.001482993692936764</v>
       </c>
       <c r="DC128">
-        <v>0.004782117586790818</v>
+        <v>0.004782117580847487</v>
       </c>
       <c r="DD128">
         <v>0.0007171831019081697</v>
@@ -44679,7 +44703,7 @@
         <v>0.001482993692936764</v>
       </c>
       <c r="DC129">
-        <v>0.004782117586790818</v>
+        <v>0.004782117580847487</v>
       </c>
       <c r="DD129">
         <v>0.0007171831019081697</v>
@@ -47573,25 +47597,25 @@
         <v>481.2836546552945</v>
       </c>
       <c r="CA2">
-        <v>0.9087150198158866</v>
+        <v>0.9087150198158868</v>
       </c>
       <c r="CB2">
         <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.9087150198158866</v>
+        <v>0.9087150198158868</v>
       </c>
       <c r="CD2">
-        <v>0.9087150198158866</v>
+        <v>0.9087150198158868</v>
       </c>
       <c r="CE2">
         <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.9087150198158866</v>
+        <v>0.9087150198158868</v>
       </c>
       <c r="CG2">
-        <v>0.9087150198158866</v>
+        <v>0.9087150198158868</v>
       </c>
       <c r="CH2">
         <v>-0.00773</v>
@@ -51270,6 +51294,21 @@
       <c r="XB3">
         <v>0</v>
       </c>
+      <c r="XC3">
+        <v>0</v>
+      </c>
+      <c r="XD3">
+        <v>0</v>
+      </c>
+      <c r="XE3">
+        <v>0</v>
+      </c>
+      <c r="XF3">
+        <v>0</v>
+      </c>
+      <c r="XG3">
+        <v>0</v>
+      </c>
       <c r="XH3">
         <v>4.60460449422118E-11</v>
       </c>
@@ -53780,25 +53819,25 @@
         <v>1050.322954953765</v>
       </c>
       <c r="CA5">
-        <v>0.7722493892644267</v>
+        <v>0.7722493892644268</v>
       </c>
       <c r="CB5">
-        <v>0.0009711666039736014</v>
+        <v>0.000971166603973662</v>
       </c>
       <c r="CC5">
         <v>0.7676029964757396</v>
       </c>
       <c r="CD5">
-        <v>0.7730539872740928</v>
+        <v>0.7730539872740929</v>
       </c>
       <c r="CE5">
-        <v>0.005450990798353206</v>
+        <v>0.005450990798353317</v>
       </c>
       <c r="CF5">
-        <v>0.7730539872740928</v>
+        <v>0.7730539872740929</v>
       </c>
       <c r="CG5">
-        <v>0.7730539872740928</v>
+        <v>0.7730539872740929</v>
       </c>
       <c r="CH5">
         <v>0.3648752777230609</v>
@@ -54140,7 +54179,7 @@
         <v>0.04040995101464388</v>
       </c>
       <c r="GQ5">
-        <v>0.007795017339870444</v>
+        <v>0.007795017339870443</v>
       </c>
       <c r="GR5">
         <v>0.032</v>
@@ -55376,10 +55415,10 @@
         <v>0.003722872211743476</v>
       </c>
       <c r="WM5">
-        <v>0.03409234603712281</v>
+        <v>0.03409234603735735</v>
       </c>
       <c r="WN5">
-        <v>0.001566208299200186</v>
+        <v>0.001566208299276666</v>
       </c>
       <c r="WO5">
         <v>0.03201561871876558</v>
@@ -55418,25 +55457,25 @@
         <v>0.00538057323168181</v>
       </c>
       <c r="XA5">
-        <v>0.006908239800037505</v>
+        <v>0.006908239799028543</v>
       </c>
       <c r="XB5">
-        <v>0.001902662261001533</v>
+        <v>0.001902662259732514</v>
       </c>
       <c r="XC5">
         <v>0.004635755011444501</v>
       </c>
       <c r="XD5">
-        <v>0.0531483321012614</v>
+        <v>0.05314833210072664</v>
       </c>
       <c r="XE5">
-        <v>0.0485125770898169</v>
+        <v>0.04851257708928214</v>
       </c>
       <c r="XF5">
-        <v>0.009002157117879767</v>
+        <v>0.009002157114722556</v>
       </c>
       <c r="XG5">
-        <v>0.009002157117879767</v>
+        <v>0.009002157114722556</v>
       </c>
       <c r="XH5">
         <v>0.001039253575346968</v>
@@ -55460,10 +55499,10 @@
         <v>0.001354424316332817</v>
       </c>
       <c r="XO5">
-        <v>0.00841906132932425</v>
+        <v>0.008419061329223401</v>
       </c>
       <c r="XP5">
-        <v>0.0004982691908711109</v>
+        <v>0.0004982691905668846</v>
       </c>
       <c r="XQ5">
         <v>0.00759356195890857</v>
@@ -55475,10 +55514,10 @@
         <v>0.00534702005333238</v>
       </c>
       <c r="XT5">
-        <v>0.008810155075217957</v>
+        <v>0.00881015507199194</v>
       </c>
       <c r="XU5">
-        <v>0.008810155075217957</v>
+        <v>0.00881015507199194</v>
       </c>
       <c r="XV5">
         <v>0.001267351810608898</v>
@@ -55502,19 +55541,19 @@
         <v>0.001326338705009063</v>
       </c>
       <c r="YC5">
-        <v>0.0007738835635210358</v>
+        <v>0.0007738835672443647</v>
       </c>
       <c r="YD5">
-        <v>0.0006423798208258684</v>
+        <v>0.0006423798256059851</v>
       </c>
       <c r="YE5">
         <v>0.0001805902310381994</v>
       </c>
       <c r="YF5">
-        <v>0.07165452656525993</v>
+        <v>0.07165452656486328</v>
       </c>
       <c r="YG5">
-        <v>0.07147393633422174</v>
+        <v>0.07147393633382508</v>
       </c>
       <c r="YH5">
         <v>0.0001805902310381994</v>
@@ -55864,25 +55903,25 @@
         <v>493.7604974470327</v>
       </c>
       <c r="CA6">
-        <v>0.8834367462195462</v>
+        <v>0.883436746219546</v>
       </c>
       <c r="CB6">
         <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.8834367462195462</v>
+        <v>0.883436746219546</v>
       </c>
       <c r="CD6">
-        <v>0.8834367462195462</v>
+        <v>0.883436746219546</v>
       </c>
       <c r="CE6">
         <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.8834367462195462</v>
+        <v>0.883436746219546</v>
       </c>
       <c r="CG6">
-        <v>0.8834367462195462</v>
+        <v>0.883436746219546</v>
       </c>
       <c r="CH6">
         <v>0.20832</v>
@@ -57544,25 +57583,25 @@
         <v>7.697872199508193E-05</v>
       </c>
       <c r="XO6">
-        <v>0.000188905315795657</v>
+        <v>0.0001889054662503862</v>
       </c>
       <c r="XP6">
         <v>0</v>
       </c>
       <c r="XQ6">
-        <v>0.000188905315795657</v>
+        <v>0.0001889054662503862</v>
       </c>
       <c r="XR6">
-        <v>0.000188905315795657</v>
+        <v>0.0001889054662503862</v>
       </c>
       <c r="XS6">
         <v>0</v>
       </c>
       <c r="XT6">
-        <v>0.000188905315795657</v>
+        <v>0.0001889054662503862</v>
       </c>
       <c r="XU6">
-        <v>0.000188905315795657</v>
+        <v>0.0001889054662503862</v>
       </c>
       <c r="XV6">
         <v>2.843578173895098E-05</v>
@@ -57951,7 +57990,7 @@
         <v>0.8272507772861732</v>
       </c>
       <c r="CB7">
-        <v>0.002323919345608634</v>
+        <v>0.002323919345608667</v>
       </c>
       <c r="CC7">
         <v>0.8270150061324961</v>
@@ -59037,7 +59076,7 @@
         <v>7.73926551075194</v>
       </c>
       <c r="PZ7">
-        <v>4.705449134946884</v>
+        <v>4.70544913494688</v>
       </c>
       <c r="QA7">
         <v>2.462419154999329</v>
@@ -59106,7 +59145,7 @@
         <v>1.79458550604055</v>
       </c>
       <c r="QW7">
-        <v>0.00045035770111213</v>
+        <v>0.0004503577011121248</v>
       </c>
       <c r="QX7">
         <v>1.794583182092653</v>
@@ -59163,7 +59202,7 @@
         <v>6.07313910188863</v>
       </c>
       <c r="RP7">
-        <v>4.705449134946884</v>
+        <v>4.70544913494688</v>
       </c>
       <c r="RQ7">
         <v>1.793001155504163</v>
@@ -59544,25 +59583,25 @@
         <v>0.02141352081354141</v>
       </c>
       <c r="WM7">
-        <v>0.007627932620162262</v>
+        <v>0.007627932620213266</v>
       </c>
       <c r="WN7">
-        <v>0.0002127466450955852</v>
+        <v>0.0002127466453993047</v>
       </c>
       <c r="WO7">
         <v>0.007614681604563306</v>
       </c>
       <c r="WP7">
-        <v>0.1074324711352352</v>
+        <v>0.1074324711349706</v>
       </c>
       <c r="WQ7">
-        <v>0.0998177895306719</v>
+        <v>0.09981778953040731</v>
       </c>
       <c r="WR7">
         <v>0.007614681604563306</v>
       </c>
       <c r="WS7">
-        <v>0.1074324711352352</v>
+        <v>0.1074324711349706</v>
       </c>
       <c r="WT7">
         <v>0.001147218908342715</v>
@@ -59628,25 +59667,25 @@
         <v>0.0008161329312630828</v>
       </c>
       <c r="XO7">
-        <v>0.007733838765238835</v>
+        <v>0.007733838765238832</v>
       </c>
       <c r="XP7">
-        <v>3.63449940791501E-05</v>
+        <v>3.634499407765261E-05</v>
       </c>
       <c r="XQ7">
         <v>0.007731235809897402</v>
       </c>
       <c r="XR7">
-        <v>0.02307079482304079</v>
+        <v>0.02307079482180886</v>
       </c>
       <c r="XS7">
-        <v>0.01533955901314339</v>
+        <v>0.01533955901191146</v>
       </c>
       <c r="XT7">
         <v>0.007731235809897402</v>
       </c>
       <c r="XU7">
-        <v>0.02307079482304079</v>
+        <v>0.02307079482180886</v>
       </c>
       <c r="XV7">
         <v>0.001163697443709237</v>
@@ -60032,19 +60071,19 @@
         <v>743.3283559105828</v>
       </c>
       <c r="CA8">
-        <v>0.8275278264745886</v>
+        <v>0.8275278264745887</v>
       </c>
       <c r="CB8">
-        <v>0.0001000937674785532</v>
+        <v>0.0001000937674784748</v>
       </c>
       <c r="CC8">
-        <v>0.8274544544160525</v>
+        <v>0.8274544544160526</v>
       </c>
       <c r="CD8">
         <v>0.8275961001641098</v>
       </c>
       <c r="CE8">
-        <v>0.0001416457480573063</v>
+        <v>0.0001416457480571953</v>
       </c>
       <c r="CF8">
         <v>0.8275961001641098</v>
@@ -61670,19 +61709,19 @@
         <v>0.005864158393284294</v>
       </c>
       <c r="XA8">
-        <v>0.1303390529645683</v>
+        <v>0.1303390529644629</v>
       </c>
       <c r="XB8">
-        <v>0.0005088949593646077</v>
+        <v>0.0005088949595190831</v>
       </c>
       <c r="XC8">
-        <v>0.12996601604441</v>
+        <v>0.1299660160441914</v>
       </c>
       <c r="XD8">
         <v>0.1306861688473029</v>
       </c>
       <c r="XE8">
-        <v>0.0007201528028929205</v>
+        <v>0.0007201528031115234</v>
       </c>
       <c r="XF8">
         <v>0.1306861688473029</v>
@@ -62116,25 +62155,25 @@
         <v>576.026799095023</v>
       </c>
       <c r="CA9">
-        <v>0.8653512966341967</v>
+        <v>0.8653512966341965</v>
       </c>
       <c r="CB9">
         <v>0.0004635739429379798</v>
       </c>
       <c r="CC9">
-        <v>0.8650231530029818</v>
+        <v>0.8650231530029816</v>
       </c>
       <c r="CD9">
-        <v>0.8656787459279335</v>
+        <v>0.8656787459279333</v>
       </c>
       <c r="CE9">
         <v>0.0006555929249516534</v>
       </c>
       <c r="CF9">
-        <v>0.8656787459279335</v>
+        <v>0.8656787459279333</v>
       </c>
       <c r="CG9">
-        <v>0.8656787459279335</v>
+        <v>0.8656787459279333</v>
       </c>
       <c r="CH9">
         <v>0.1785175153589186</v>
@@ -65838,25 +65877,25 @@
         <v>5.359846344733438E-06</v>
       </c>
       <c r="XA10">
-        <v>0.0001816505505845571</v>
+        <v>0.0001816507070481466</v>
       </c>
       <c r="XB10">
         <v>0</v>
       </c>
       <c r="XC10">
-        <v>0.0001816505505845571</v>
+        <v>0.0001816507070481466</v>
       </c>
       <c r="XD10">
-        <v>0.0001816505505845571</v>
+        <v>0.0001816507070481466</v>
       </c>
       <c r="XE10">
         <v>0</v>
       </c>
       <c r="XF10">
-        <v>0.0001816505505845571</v>
+        <v>0.0001816507070481466</v>
       </c>
       <c r="XG10">
-        <v>0.0001816505505845571</v>
+        <v>0.0001816507070481466</v>
       </c>
       <c r="XH10">
         <v>2.630446195564655E-05</v>
@@ -66071,7 +66110,7 @@
         <v>-0.3121</v>
       </c>
       <c r="H11">
-        <v>-0.3121</v>
+        <v>-0.31568</v>
       </c>
       <c r="I11">
         <v>-0.003239157972967773</v>
@@ -66092,7 +66131,7 @@
         <v>-0.0021</v>
       </c>
       <c r="O11">
-        <v>-0.0021</v>
+        <v>-0.00515</v>
       </c>
       <c r="P11">
         <v>-0.158102473217098</v>
@@ -66113,7 +66152,7 @@
         <v>-0.1571</v>
       </c>
       <c r="V11">
-        <v>-0.1571</v>
+        <v>-0.160415</v>
       </c>
       <c r="W11">
         <v>0.3097266304882604</v>
@@ -66134,7 +66173,7 @@
         <v>0.31</v>
       </c>
       <c r="AC11">
-        <v>0.31</v>
+        <v>0.31053</v>
       </c>
       <c r="AD11">
         <v>0.04036129664400825</v>
@@ -66155,7 +66194,7 @@
         <v>0.03981</v>
       </c>
       <c r="AJ11">
-        <v>0.03981</v>
+        <v>0.04143</v>
       </c>
       <c r="AK11">
         <v>116.5431449562385</v>
@@ -66176,7 +66215,7 @@
         <v>116.613</v>
       </c>
       <c r="AQ11">
-        <v>116.613</v>
+        <v>117.866</v>
       </c>
       <c r="AR11">
         <v>58.97099578259191</v>
@@ -66197,7 +66236,7 @@
         <v>62.9607</v>
       </c>
       <c r="AX11">
-        <v>62.9607</v>
+        <v>77.3913</v>
       </c>
       <c r="AY11">
         <v>2.08544131792393</v>
@@ -66218,7 +66257,7 @@
         <v>1.1393</v>
       </c>
       <c r="BE11">
-        <v>1.1393</v>
+        <v>3.7713</v>
       </c>
       <c r="BF11">
         <v>1384.971163443323</v>
@@ -66239,7 +66278,7 @@
         <v>1325.273</v>
       </c>
       <c r="BL11">
-        <v>1325.273</v>
+        <v>1428.498</v>
       </c>
       <c r="BM11">
         <v>343.8551494873594</v>
@@ -66260,13 +66299,13 @@
         <v>345.8524445293194</v>
       </c>
       <c r="BS11">
-        <v>345.8524445293194</v>
+        <v>349.0125079906796</v>
       </c>
       <c r="BT11">
-        <v>502.3048421043629</v>
+        <v>502.3048421043628</v>
       </c>
       <c r="BU11">
-        <v>5.83690861105049</v>
+        <v>5.836908611050489</v>
       </c>
       <c r="BV11">
         <v>486.7591326509519</v>
@@ -66278,16 +66317,16 @@
         <v>22.3635846589483</v>
       </c>
       <c r="BY11">
-        <v>504.3922774794584</v>
+        <v>504.3922774794583</v>
       </c>
       <c r="BZ11">
-        <v>504.3922774794584</v>
+        <v>505.5106451857053</v>
       </c>
       <c r="CA11">
         <v>0.888816061142356</v>
       </c>
       <c r="CB11">
-        <v>0.008412926760996866</v>
+        <v>0.008412926760996852</v>
       </c>
       <c r="CC11">
         <v>0.8780138022572573</v>
@@ -66302,49 +66341,49 @@
         <v>0.8860105514854454</v>
       </c>
       <c r="CG11">
-        <v>0.8860105514854454</v>
+        <v>0.879285685933295</v>
       </c>
       <c r="CH11">
-        <v>0.0242573817160675</v>
+        <v>0.02416826549190355</v>
       </c>
       <c r="CI11">
-        <v>0.002667332182625862</v>
+        <v>0.002696591393200889</v>
       </c>
       <c r="CJ11">
-        <v>0.02239</v>
+        <v>0.02177</v>
       </c>
       <c r="CK11">
         <v>0.03432</v>
       </c>
       <c r="CL11">
-        <v>0.01193</v>
+        <v>0.01255</v>
       </c>
       <c r="CM11">
         <v>0.03011</v>
       </c>
       <c r="CN11">
-        <v>0.03011</v>
+        <v>0.02177</v>
       </c>
       <c r="CO11">
-        <v>-0.2218147639745984</v>
+        <v>-0.2165741285959262</v>
       </c>
       <c r="CP11">
-        <v>0.07100962438772412</v>
+        <v>0.07605294290672961</v>
       </c>
       <c r="CQ11">
         <v>-0.25205</v>
       </c>
       <c r="CR11">
-        <v>-0.05855</v>
+        <v>-0.05802</v>
       </c>
       <c r="CS11">
-        <v>0.1935</v>
+        <v>0.19403</v>
       </c>
       <c r="CT11">
         <v>-0.05855</v>
       </c>
       <c r="CU11">
-        <v>-0.05855</v>
+        <v>-0.05802</v>
       </c>
       <c r="CV11">
         <v>-0.1777596477932007</v>
@@ -66365,49 +66404,49 @@
         <v>-0.17611</v>
       </c>
       <c r="DB11">
-        <v>-0.17611</v>
+        <v>-0.16989</v>
       </c>
       <c r="DC11">
-        <v>-0.08964255161191782</v>
+        <v>-0.09488318699058995</v>
       </c>
       <c r="DD11">
-        <v>0.06991239460291047</v>
+        <v>0.07474845011694919</v>
       </c>
       <c r="DE11">
         <v>-0.25013</v>
       </c>
       <c r="DF11">
-        <v>-0.05802</v>
+        <v>-0.05854</v>
       </c>
       <c r="DG11">
-        <v>0.19211</v>
+        <v>0.19159</v>
       </c>
       <c r="DH11">
         <v>-0.25013</v>
       </c>
       <c r="DI11">
-        <v>-0.25013</v>
+        <v>-0.24973</v>
       </c>
       <c r="DJ11">
-        <v>0.02863818268580812</v>
+        <v>0.02872729890997207</v>
       </c>
       <c r="DK11">
-        <v>0.003802913575914723</v>
+        <v>0.003666351436245947</v>
       </c>
       <c r="DL11">
-        <v>0.02177</v>
+        <v>0.02277</v>
       </c>
       <c r="DM11">
         <v>0.03665</v>
       </c>
       <c r="DN11">
-        <v>0.01488</v>
+        <v>0.01388</v>
       </c>
       <c r="DO11">
         <v>0.02277</v>
       </c>
       <c r="DP11">
-        <v>0.02277</v>
+        <v>0.02503</v>
       </c>
       <c r="DQ11">
         <v>-0.4093297289587801</v>
@@ -66428,34 +66467,34 @@
         <v>-0.41</v>
       </c>
       <c r="DW11">
-        <v>-0.41</v>
+        <v>-0.40802</v>
       </c>
       <c r="DX11">
-        <v>12.1347604480638</v>
+        <v>12.19239622936052</v>
       </c>
       <c r="DY11">
-        <v>0.8923675880613411</v>
+        <v>0.9881275271585523</v>
       </c>
       <c r="DZ11">
         <v>9.636699999999999</v>
       </c>
       <c r="EA11">
-        <v>12.8009</v>
+        <v>14.6598</v>
       </c>
       <c r="EB11">
-        <v>3.164200000000001</v>
+        <v>5.023100000000001</v>
       </c>
       <c r="EC11">
         <v>10.2683</v>
       </c>
       <c r="ED11">
-        <v>10.2683</v>
+        <v>14.6598</v>
       </c>
       <c r="EE11">
-        <v>39.33943684619828</v>
+        <v>38.98556069384564</v>
       </c>
       <c r="EF11">
-        <v>6.232619141132575</v>
+        <v>6.475218407455801</v>
       </c>
       <c r="EG11">
         <v>25.019</v>
@@ -66470,7 +66509,7 @@
         <v>25.019</v>
       </c>
       <c r="EK11">
-        <v>25.019</v>
+        <v>28.669</v>
       </c>
       <c r="EL11">
         <v>26.38015174810057</v>
@@ -66491,13 +66530,13 @@
         <v>26.4212</v>
       </c>
       <c r="ER11">
-        <v>26.4212</v>
+        <v>25.798</v>
       </c>
       <c r="ES11">
-        <v>28.42262263319597</v>
+        <v>28.77649878554861</v>
       </c>
       <c r="ET11">
-        <v>5.921159749402247</v>
+        <v>6.330573416528439</v>
       </c>
       <c r="EU11">
         <v>25.0164</v>
@@ -66512,28 +66551,28 @@
         <v>41.809</v>
       </c>
       <c r="EY11">
-        <v>41.809</v>
+        <v>41.6143</v>
       </c>
       <c r="EZ11">
-        <v>10.56274094141159</v>
+        <v>10.50510516011488</v>
       </c>
       <c r="FA11">
-        <v>1.360715983075824</v>
+        <v>1.211595876547635</v>
       </c>
       <c r="FB11">
         <v>8.359999999999999</v>
       </c>
       <c r="FC11">
-        <v>14.6598</v>
+        <v>12.7885</v>
       </c>
       <c r="FD11">
-        <v>6.299800000000001</v>
+        <v>4.428500000000001</v>
       </c>
       <c r="FE11">
         <v>12.7885</v>
       </c>
       <c r="FF11">
-        <v>12.7885</v>
+        <v>12.5514</v>
       </c>
       <c r="FG11">
         <v>-155.6903143340473</v>
@@ -66554,49 +66593,49 @@
         <v>-155.3219</v>
       </c>
       <c r="FM11">
-        <v>-155.3219</v>
+        <v>-155.5752</v>
       </c>
       <c r="FN11">
-        <v>1.338146865512825</v>
+        <v>1.338276712771959</v>
       </c>
       <c r="FO11">
-        <v>0.0007299501341436947</v>
+        <v>0.0006765869350687146</v>
       </c>
       <c r="FP11">
-        <v>1.33557</v>
+        <v>1.33606</v>
       </c>
       <c r="FQ11">
-        <v>1.33976</v>
+        <v>1.34032</v>
       </c>
       <c r="FR11">
-        <v>0.004190000000000138</v>
+        <v>0.004259999999999931</v>
       </c>
       <c r="FS11">
         <v>1.33731</v>
       </c>
       <c r="FT11">
-        <v>1.33731</v>
+        <v>1.34032</v>
       </c>
       <c r="FU11">
-        <v>1.337418355728419</v>
+        <v>1.337288508469284</v>
       </c>
       <c r="FV11">
-        <v>0.0007969422051178149</v>
+        <v>0.0006846076921077738</v>
       </c>
       <c r="FW11">
         <v>1.33441</v>
       </c>
       <c r="FX11">
-        <v>1.34032</v>
+        <v>1.33828</v>
       </c>
       <c r="FY11">
-        <v>0.00590999999999986</v>
+        <v>0.003869999999999818</v>
       </c>
       <c r="FZ11">
         <v>1.33828</v>
       </c>
       <c r="GA11">
-        <v>1.33828</v>
+        <v>1.33557</v>
       </c>
       <c r="GB11">
         <v>117.2169298656825</v>
@@ -66617,7 +66656,7 @@
         <v>117.185</v>
       </c>
       <c r="GH11">
-        <v>117.185</v>
+        <v>117.509</v>
       </c>
       <c r="GI11">
         <v>0.05456132106942918</v>
@@ -66638,7 +66677,7 @@
         <v>0.154</v>
       </c>
       <c r="GO11">
-        <v>0.154</v>
+        <v>0</v>
       </c>
       <c r="GP11">
         <v>0.1054676657977116</v>
@@ -66659,13 +66698,13 @@
         <v>0.006</v>
       </c>
       <c r="GV11">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="GW11">
-        <v>90.72235735059752</v>
+        <v>90.73453582613074</v>
       </c>
       <c r="GX11">
-        <v>0.108742834376653</v>
+        <v>0.1317507871735826</v>
       </c>
       <c r="GY11">
         <v>90.625</v>
@@ -66680,13 +66719,13 @@
         <v>90.90263429752066</v>
       </c>
       <c r="HC11">
-        <v>90.90263429752066</v>
+        <v>91.16089876033058</v>
       </c>
       <c r="HD11">
-        <v>92.96957794238851</v>
+        <v>93.09171569701162</v>
       </c>
       <c r="HE11">
-        <v>1.93357013445366</v>
+        <v>2.029040639264564</v>
       </c>
       <c r="HF11">
         <v>92.14553202479338</v>
@@ -66701,7 +66740,7 @@
         <v>97.40767045454545</v>
       </c>
       <c r="HJ11">
-        <v>97.40767045454545</v>
+        <v>96.69421487603306</v>
       </c>
       <c r="HK11">
         <v>92.75090269820171</v>
@@ -66722,13 +66761,13 @@
         <v>92.62332128099173</v>
       </c>
       <c r="HQ11">
-        <v>92.62332128099173</v>
+        <v>92.49418904958677</v>
       </c>
       <c r="HR11">
-        <v>96.68481766020346</v>
+        <v>96.56267990558034</v>
       </c>
       <c r="HS11">
-        <v>1.972045616989147</v>
+        <v>2.112226434523965</v>
       </c>
       <c r="HT11">
         <v>92.17135847107438</v>
@@ -66743,13 +66782,13 @@
         <v>92.17135847107438</v>
       </c>
       <c r="HX11">
-        <v>92.17135847107438</v>
+        <v>92.22623966942149</v>
       </c>
       <c r="HY11">
-        <v>91.0618130194466</v>
+        <v>91.04963454391337</v>
       </c>
       <c r="HZ11">
-        <v>0.4073068951343435</v>
+        <v>0.411097804740813</v>
       </c>
       <c r="IA11">
         <v>90.67988119834712</v>
@@ -66764,7 +66803,7 @@
         <v>90.68956611570248</v>
       </c>
       <c r="IE11">
-        <v>90.68956611570248</v>
+        <v>90.71539256198346</v>
       </c>
       <c r="IF11">
         <v>80.17246049786444</v>
@@ -66785,13 +66824,13 @@
         <v>80.1459194214876</v>
       </c>
       <c r="IL11">
-        <v>80.1459194214876</v>
+        <v>80.21694214876032</v>
       </c>
       <c r="IM11">
-        <v>74.10171939275259</v>
+        <v>74.20967254271747</v>
       </c>
       <c r="IN11">
-        <v>0.9618942921127385</v>
+        <v>1.131357251954475</v>
       </c>
       <c r="IO11">
         <v>73.69449147024352</v>
@@ -66806,13 +66845,13 @@
         <v>76.25830186222164</v>
       </c>
       <c r="IS11">
-        <v>76.25830186222164</v>
+        <v>77.64682901419455</v>
       </c>
       <c r="IT11">
-        <v>77.71117883733255</v>
+        <v>78.05648652229854</v>
       </c>
       <c r="IU11">
-        <v>5.285270929955801</v>
+        <v>5.560648965935031</v>
       </c>
       <c r="IV11">
         <v>75.55996874593046</v>
@@ -66827,7 +66866,7 @@
         <v>89.83266050266961</v>
       </c>
       <c r="IZ11">
-        <v>89.83266050266961</v>
+        <v>88.19182185180362</v>
       </c>
       <c r="JA11">
         <v>79.06723081987006</v>
@@ -66848,49 +66887,49 @@
         <v>78.68700351608283</v>
       </c>
       <c r="JG11">
-        <v>78.68700351608283</v>
+        <v>77.74938142987368</v>
       </c>
       <c r="JH11">
-        <v>88.03746072754905</v>
+        <v>87.69215304258306</v>
       </c>
       <c r="JI11">
-        <v>5.448682333327017</v>
+        <v>5.845412140529699</v>
       </c>
       <c r="JJ11">
-        <v>75.60066414897774</v>
+        <v>75.55996874593046</v>
       </c>
       <c r="JK11">
         <v>93.1354994139862</v>
       </c>
       <c r="JL11">
-        <v>17.53483526500845</v>
+        <v>17.57553066805573</v>
       </c>
       <c r="JM11">
         <v>75.60066414897774</v>
       </c>
       <c r="JN11">
-        <v>75.60066414897774</v>
+        <v>75.55996874593046</v>
       </c>
       <c r="JO11">
-        <v>76.38738874143841</v>
+        <v>76.27943559147353</v>
       </c>
       <c r="JP11">
-        <v>1.577790444051299</v>
+        <v>1.626056154313825</v>
       </c>
       <c r="JQ11">
-        <v>73.72541997655945</v>
+        <v>73.6977471024873</v>
       </c>
       <c r="JR11">
         <v>80.36528193775231</v>
       </c>
       <c r="JS11">
-        <v>6.639861961192864</v>
+        <v>6.667534835265016</v>
       </c>
       <c r="JT11">
         <v>73.72541997655945</v>
       </c>
       <c r="JU11">
-        <v>73.72541997655945</v>
+        <v>73.6977471024873</v>
       </c>
       <c r="JV11">
         <v>66.85323203703865</v>
@@ -66911,34 +66950,34 @@
         <v>66.85766375830187</v>
       </c>
       <c r="KB11">
-        <v>66.85766375830187</v>
+        <v>66.87556973564266</v>
       </c>
       <c r="KC11">
-        <v>58.44847870478909</v>
+        <v>58.64173045957036</v>
       </c>
       <c r="KD11">
-        <v>1.93225415014833</v>
+        <v>2.198009183494446</v>
       </c>
       <c r="KE11">
-        <v>57.63185339690108</v>
+        <v>57.64675208581644</v>
       </c>
       <c r="KF11">
         <v>68.36077175208581</v>
       </c>
       <c r="KG11">
-        <v>10.72891835518473</v>
+        <v>10.71401966626937</v>
       </c>
       <c r="KH11">
         <v>62.81845947556614</v>
       </c>
       <c r="KI11">
-        <v>62.81845947556614</v>
+        <v>64.70128128724673</v>
       </c>
       <c r="KJ11">
-        <v>62.7771836478525</v>
+        <v>63.25323664020225</v>
       </c>
       <c r="KK11">
-        <v>6.983029393166612</v>
+        <v>7.380665428068521</v>
       </c>
       <c r="KL11">
         <v>59.83313468414779</v>
@@ -66953,7 +66992,7 @@
         <v>78.76843712753278</v>
       </c>
       <c r="KP11">
-        <v>78.76843712753278</v>
+        <v>77.25994487485102</v>
       </c>
       <c r="KQ11">
         <v>66.35121921267715</v>
@@ -66974,49 +67013,49 @@
         <v>65.69111293206198</v>
       </c>
       <c r="KW11">
-        <v>65.69111293206198</v>
+        <v>64.00756108462456</v>
       </c>
       <c r="KX11">
-        <v>76.70561716878407</v>
+        <v>76.22956417643434</v>
       </c>
       <c r="KY11">
-        <v>7.428208783610668</v>
+        <v>7.958781067989066</v>
       </c>
       <c r="KZ11">
-        <v>59.86293206197855</v>
+        <v>59.84523986889154</v>
       </c>
       <c r="LA11">
         <v>84.55564660309892</v>
       </c>
       <c r="LB11">
-        <v>24.69271454112037</v>
+        <v>24.71040673420738</v>
       </c>
       <c r="LC11">
         <v>59.86293206197855</v>
       </c>
       <c r="LD11">
-        <v>59.86293206197855</v>
+        <v>59.84523986889154</v>
       </c>
       <c r="LE11">
-        <v>62.79731441356928</v>
+        <v>62.60406265878801</v>
       </c>
       <c r="LF11">
-        <v>2.731333967347386</v>
+        <v>2.846496162349309</v>
       </c>
       <c r="LG11">
-        <v>57.65047675804529</v>
+        <v>57.63185339690108</v>
       </c>
       <c r="LH11">
         <v>68.77886620977354</v>
       </c>
       <c r="LI11">
-        <v>11.12838945172825</v>
+        <v>11.14701281287246</v>
       </c>
       <c r="LJ11">
         <v>57.65047675804529</v>
       </c>
       <c r="LK11">
-        <v>57.65047675804529</v>
+        <v>57.63185339690108</v>
       </c>
       <c r="LL11">
         <v>55.0345308367159</v>
@@ -67037,49 +67076,49 @@
         <v>54.95846990464839</v>
       </c>
       <c r="LR11">
-        <v>54.95846990464839</v>
+        <v>55.01433998808105</v>
       </c>
       <c r="LS11">
-        <v>46.11123246682713</v>
+        <v>46.37249285995268</v>
       </c>
       <c r="LT11">
-        <v>2.822198397767963</v>
+        <v>3.145555615765567</v>
       </c>
       <c r="LU11">
-        <v>44.87222791651137</v>
+        <v>44.89435799478196</v>
       </c>
       <c r="LV11">
         <v>59.1461284010436</v>
       </c>
       <c r="LW11">
-        <v>14.27390048453223</v>
+        <v>14.25177040626163</v>
       </c>
       <c r="LX11">
         <v>52.51176388371226</v>
       </c>
       <c r="LY11">
-        <v>52.51176388371226</v>
+        <v>54.42950987700335</v>
       </c>
       <c r="LZ11">
-        <v>50.34030984029719</v>
+        <v>50.81155284175411</v>
       </c>
       <c r="MA11">
-        <v>6.697315291984856</v>
+        <v>7.07511487708547</v>
       </c>
       <c r="MB11">
-        <v>47.05262299664555</v>
+        <v>47.29197726425643</v>
       </c>
       <c r="MC11">
         <v>72.5988865076407</v>
       </c>
       <c r="MD11">
-        <v>25.54626351099515</v>
+        <v>25.30690924338427</v>
       </c>
       <c r="ME11">
         <v>65.61975866567276</v>
       </c>
       <c r="MF11">
-        <v>65.61975866567276</v>
+        <v>64.29137159895639</v>
       </c>
       <c r="MG11">
         <v>56.12317665824106</v>
@@ -67100,49 +67139,49 @@
         <v>55.36945583302274</v>
       </c>
       <c r="MM11">
-        <v>55.36945583302274</v>
+        <v>52.84837402161759</v>
       </c>
       <c r="MN11">
-        <v>63.90400657476852</v>
+        <v>63.4327635733116</v>
       </c>
       <c r="MO11">
-        <v>7.379226719955914</v>
+        <v>7.913122697997881</v>
       </c>
       <c r="MP11">
-        <v>47.39098024599329</v>
+        <v>47.05262299664555</v>
       </c>
       <c r="MQ11">
         <v>72.62159895639209</v>
       </c>
       <c r="MR11">
-        <v>25.2306187103988</v>
+        <v>25.56897595974654</v>
       </c>
       <c r="MS11">
         <v>47.39098024599329</v>
       </c>
       <c r="MT11">
-        <v>47.39098024599329</v>
+        <v>47.05262299664555</v>
       </c>
       <c r="MU11">
-        <v>52.31385207578332</v>
+        <v>52.05259168265777</v>
       </c>
       <c r="MV11">
-        <v>3.688438045361535</v>
+        <v>3.877892409787508</v>
       </c>
       <c r="MW11">
-        <v>44.89959932910921</v>
+        <v>44.87222791651137</v>
       </c>
       <c r="MX11">
         <v>59.38897689153932</v>
       </c>
       <c r="MY11">
-        <v>14.48937756243011</v>
+        <v>14.51674897502795</v>
       </c>
       <c r="MZ11">
         <v>44.89959932910921</v>
       </c>
       <c r="NA11">
-        <v>44.89959932910921</v>
+        <v>44.87222791651137</v>
       </c>
       <c r="NB11">
         <v>44.37747424556635</v>
@@ -67163,49 +67202,49 @@
         <v>44.09301621319418</v>
       </c>
       <c r="NH11">
-        <v>44.09301621319418</v>
+        <v>44.35508292955647</v>
       </c>
       <c r="NI11">
-        <v>36.48473818038639</v>
+        <v>36.78505151088569</v>
       </c>
       <c r="NJ11">
-        <v>3.317200458188193</v>
+        <v>3.651062690769932</v>
       </c>
       <c r="NK11">
-        <v>34.71735149897586</v>
+        <v>34.93963751474148</v>
       </c>
       <c r="NL11">
         <v>51.0493606852461</v>
       </c>
       <c r="NM11">
-        <v>16.33200918627024</v>
+        <v>16.10972317050462</v>
       </c>
       <c r="NN11">
         <v>43.9920706349699</v>
       </c>
       <c r="NO11">
-        <v>43.9920706349699</v>
+        <v>45.70324622928434</v>
       </c>
       <c r="NP11">
-        <v>39.99221279427201</v>
+        <v>40.38119167639054</v>
       </c>
       <c r="NQ11">
-        <v>5.450571744994718</v>
+        <v>5.717510828774419</v>
       </c>
       <c r="NR11">
-        <v>36.60930420209795</v>
+        <v>37.27965365278381</v>
       </c>
       <c r="NS11">
         <v>59.05747625845695</v>
       </c>
       <c r="NT11">
-        <v>22.448172056359</v>
+        <v>21.77782260567314</v>
       </c>
       <c r="NU11">
         <v>52.30859350754143</v>
       </c>
       <c r="NV11">
-        <v>52.30859350754143</v>
+        <v>50.83871268077711</v>
       </c>
       <c r="NW11">
         <v>46.85704616628259</v>
@@ -67226,49 +67265,49 @@
         <v>46.21143938923717</v>
       </c>
       <c r="OC11">
-        <v>46.21143938923717</v>
+        <v>43.05792626156043</v>
       </c>
       <c r="OD11">
-        <v>50.93962206456504</v>
+        <v>50.55064318244651</v>
       </c>
       <c r="OE11">
-        <v>6.133643213817223</v>
+        <v>6.598400966757882</v>
       </c>
       <c r="OF11">
-        <v>37.40456830736763</v>
+        <v>36.60930420209795</v>
       </c>
       <c r="OG11">
         <v>59.06678666749426</v>
       </c>
       <c r="OH11">
-        <v>21.66221836012663</v>
+        <v>22.45748246539631</v>
       </c>
       <c r="OI11">
         <v>37.40456830736763</v>
       </c>
       <c r="OJ11">
-        <v>37.40456830736763</v>
+        <v>36.60930420209795</v>
       </c>
       <c r="OK11">
-        <v>43.7130668394789</v>
+        <v>43.41275350897959</v>
       </c>
       <c r="OL11">
-        <v>4.247746665952682</v>
+        <v>4.497201921156912</v>
       </c>
       <c r="OM11">
-        <v>34.93304264167339</v>
+        <v>34.71735149897586</v>
       </c>
       <c r="ON11">
         <v>51.22354292098566</v>
       </c>
       <c r="OO11">
-        <v>16.29050027931227</v>
+        <v>16.5061914220098</v>
       </c>
       <c r="OP11">
         <v>34.93304264167339</v>
       </c>
       <c r="OQ11">
-        <v>34.93304264167339</v>
+        <v>34.71735149897586</v>
       </c>
       <c r="OR11">
         <v>36.02822303024741</v>
@@ -67289,106 +67328,106 @@
         <v>35.60106449009993</v>
       </c>
       <c r="OX11">
-        <v>35.60106449009993</v>
+        <v>36.05572279808826</v>
       </c>
       <c r="OY11">
-        <v>5.293816641197174</v>
+        <v>5.408743061175143</v>
       </c>
       <c r="OZ11">
-        <v>1.508983516398023</v>
+        <v>1.623075928406189</v>
       </c>
       <c r="PA11">
-        <v>4.684268348652511</v>
+        <v>4.687699274279154</v>
       </c>
       <c r="PB11">
-        <v>8.775715984845123</v>
+        <v>8.888442534027535</v>
       </c>
       <c r="PC11">
-        <v>4.091447636192612</v>
+        <v>4.20074325974838</v>
       </c>
       <c r="PD11">
         <v>8.775715984845123</v>
       </c>
       <c r="PE11">
-        <v>8.775715984845123</v>
+        <v>8.888442534027535</v>
       </c>
       <c r="PF11">
-        <v>1.7</v>
+        <v>1.707861918785763</v>
       </c>
       <c r="PG11">
-        <v>2.311113522186639E-16</v>
+        <v>0.0488114129771326</v>
       </c>
       <c r="PH11">
         <v>1.7</v>
       </c>
       <c r="PI11">
-        <v>1.7</v>
+        <v>1.987600327348177</v>
       </c>
       <c r="PJ11">
-        <v>0</v>
+        <v>0.2876003273481771</v>
       </c>
       <c r="PK11">
         <v>1.7</v>
       </c>
       <c r="PL11">
-        <v>1.7</v>
+        <v>1.987600327348177</v>
       </c>
       <c r="PM11">
-        <v>7.69477258485672</v>
+        <v>7.629246680830535</v>
       </c>
       <c r="PN11">
-        <v>1.536888622236996</v>
+        <v>1.627672477880274</v>
       </c>
       <c r="PO11">
-        <v>4.629066304987678</v>
+        <v>4.439929407806746</v>
       </c>
       <c r="PP11">
         <v>8.965902701846154</v>
       </c>
       <c r="PQ11">
-        <v>4.336836396858477</v>
+        <v>4.525973294039408</v>
       </c>
       <c r="PR11">
         <v>4.629066304987678</v>
       </c>
       <c r="PS11">
-        <v>4.629066304987678</v>
+        <v>4.439929407806746</v>
       </c>
       <c r="PT11">
-        <v>7.566488056255415</v>
+        <v>7.451561636277446</v>
       </c>
       <c r="PU11">
-        <v>1.521226370780195</v>
+        <v>1.579265521527223</v>
       </c>
       <c r="PV11">
-        <v>4.688232497513162</v>
+        <v>4.684268348652511</v>
       </c>
       <c r="PW11">
-        <v>8.888442534027535</v>
+        <v>8.77536171212048</v>
       </c>
       <c r="PX11">
-        <v>4.200210036514372</v>
+        <v>4.091093363467969</v>
       </c>
       <c r="PY11">
         <v>4.688963367534203</v>
       </c>
       <c r="PZ11">
-        <v>4.688963367534203</v>
+        <v>4.684268348652511</v>
       </c>
       <c r="QA11">
-        <v>1.707861918785763</v>
+        <v>1.7</v>
       </c>
       <c r="QB11">
-        <v>0.0488114129771326</v>
+        <v>2.311113522186639E-16</v>
       </c>
       <c r="QC11">
         <v>1.7</v>
       </c>
       <c r="QD11">
-        <v>1.987600327348177</v>
+        <v>1.7</v>
       </c>
       <c r="QE11">
-        <v>0.2876003273481771</v>
+        <v>0</v>
       </c>
       <c r="QF11">
         <v>1.7</v>
@@ -67397,124 +67436,124 @@
         <v>1.7</v>
       </c>
       <c r="QH11">
-        <v>5.674933208289609</v>
+        <v>5.740459112315794</v>
       </c>
       <c r="QI11">
-        <v>1.563175490505224</v>
+        <v>1.560027530615914</v>
       </c>
       <c r="QJ11">
-        <v>4.439929407806746</v>
+        <v>4.442044616838785</v>
       </c>
       <c r="QK11">
         <v>8.919313939334208</v>
       </c>
       <c r="QL11">
-        <v>4.479384531527462</v>
+        <v>4.477269322495423</v>
       </c>
       <c r="QM11">
         <v>8.919313939334208</v>
       </c>
       <c r="QN11">
-        <v>8.919313939334208</v>
+        <v>6.836961476090551</v>
       </c>
       <c r="QO11">
-        <v>4.924782244345684</v>
+        <v>5.012734505372304</v>
       </c>
       <c r="QP11">
-        <v>0.5881117855211893</v>
+        <v>0.7734488755167057</v>
       </c>
       <c r="QQ11">
-        <v>4.684268348652511</v>
+        <v>4.687699274279154</v>
       </c>
       <c r="QR11">
-        <v>6.336152168548018</v>
+        <v>7.901688898464847</v>
       </c>
       <c r="QS11">
-        <v>1.651883819895508</v>
+        <v>3.213989624185692</v>
       </c>
       <c r="QT11">
         <v>6.276474250859666</v>
       </c>
       <c r="QU11">
-        <v>6.276474250859666</v>
+        <v>7.901688898464847</v>
       </c>
       <c r="QV11">
-        <v>1.7</v>
+        <v>1.707604288478922</v>
       </c>
       <c r="QW11">
-        <v>2.311113522186639E-16</v>
+        <v>0.04721189259982058</v>
       </c>
       <c r="QX11">
         <v>1.7</v>
       </c>
       <c r="QY11">
-        <v>1.7</v>
+        <v>1.97817583917918</v>
       </c>
       <c r="QZ11">
-        <v>0</v>
+        <v>0.27817583917918</v>
       </c>
       <c r="RA11">
         <v>1.7</v>
       </c>
       <c r="RB11">
-        <v>1.7</v>
+        <v>1.97817583917918</v>
       </c>
       <c r="RC11">
-        <v>6.038862147333717</v>
+        <v>5.975116318512161</v>
       </c>
       <c r="RD11">
-        <v>0.7206044227722004</v>
+        <v>0.7580695302344381</v>
       </c>
       <c r="RE11">
-        <v>4.443417448378051</v>
+        <v>4.439929407806746</v>
       </c>
       <c r="RF11">
-        <v>6.771843757947445</v>
+        <v>6.733805511494627</v>
       </c>
       <c r="RG11">
-        <v>2.328426309569394</v>
+        <v>2.293876103687881</v>
       </c>
       <c r="RH11">
         <v>4.443417448378051</v>
       </c>
       <c r="RI11">
-        <v>4.443417448378051</v>
+        <v>4.439929407806746</v>
       </c>
       <c r="RJ11">
-        <v>6.129290753126338</v>
+        <v>6.041338492099719</v>
       </c>
       <c r="RK11">
-        <v>0.690985662066303</v>
+        <v>0.6617311100019139</v>
       </c>
       <c r="RL11">
-        <v>4.688232497513162</v>
+        <v>4.684268348652511</v>
       </c>
       <c r="RM11">
-        <v>7.901688898464847</v>
+        <v>6.773402632254264</v>
       </c>
       <c r="RN11">
-        <v>3.213456400951684</v>
+        <v>2.089134283601753</v>
       </c>
       <c r="RO11">
         <v>4.688963367534203</v>
       </c>
       <c r="RP11">
-        <v>4.688963367534203</v>
+        <v>4.684268348652511</v>
       </c>
       <c r="RQ11">
-        <v>1.707604288478922</v>
+        <v>1.7</v>
       </c>
       <c r="RR11">
-        <v>0.04721189259982058</v>
+        <v>2.311113522186639E-16</v>
       </c>
       <c r="RS11">
         <v>1.7</v>
       </c>
       <c r="RT11">
-        <v>1.97817583917918</v>
+        <v>1.7</v>
       </c>
       <c r="RU11">
-        <v>0.27817583917918</v>
+        <v>0</v>
       </c>
       <c r="RV11">
         <v>1.7</v>
@@ -67523,103 +67562,103 @@
         <v>1.7</v>
       </c>
       <c r="RX11">
-        <v>4.774016408178429</v>
+        <v>4.837762236999986</v>
       </c>
       <c r="RY11">
-        <v>0.6493032083578227</v>
+        <v>0.7294429710012644</v>
       </c>
       <c r="RZ11">
-        <v>4.439929407806746</v>
+        <v>4.442044616838785</v>
       </c>
       <c r="SA11">
-        <v>6.357839364724343</v>
+        <v>6.771843757947445</v>
       </c>
       <c r="SB11">
-        <v>1.917909956917597</v>
+        <v>2.32979914110866</v>
       </c>
       <c r="SC11">
         <v>6.215292004899216</v>
       </c>
       <c r="SD11">
-        <v>6.215292004899216</v>
+        <v>6.771843757947445</v>
       </c>
       <c r="SE11">
-        <v>1.672546968197865</v>
+        <v>1.679963293945168</v>
       </c>
       <c r="SF11">
-        <v>0.01165326339307063</v>
+        <v>0.04852633552735439</v>
       </c>
       <c r="SG11">
         <v>1.649999999999999</v>
       </c>
       <c r="SH11">
-        <v>1.678700108616285</v>
+        <v>1.95</v>
       </c>
       <c r="SI11">
-        <v>0.02870010861628591</v>
+        <v>0.3000000000000009</v>
       </c>
       <c r="SJ11">
         <v>1.678700108616284</v>
       </c>
       <c r="SK11">
-        <v>1.678700108616284</v>
+        <v>1.95</v>
       </c>
       <c r="SL11">
-        <v>7.662640759812757</v>
+        <v>7.597147333387774</v>
       </c>
       <c r="SM11">
-        <v>1.53091804004827</v>
+        <v>1.622049563706448</v>
       </c>
       <c r="SN11">
-        <v>4.602445002387318</v>
+        <v>4.407096549884062</v>
       </c>
       <c r="SO11">
         <v>8.927485648266257</v>
       </c>
       <c r="SP11">
-        <v>4.325040645878939</v>
+        <v>4.520389098382195</v>
       </c>
       <c r="SQ11">
         <v>4.602445002387318</v>
       </c>
       <c r="SR11">
-        <v>4.602445002387318</v>
+        <v>4.407096549884062</v>
       </c>
       <c r="SS11">
-        <v>4.857064871675125</v>
+        <v>4.971877185015185</v>
       </c>
       <c r="ST11">
-        <v>1.513770290802855</v>
+        <v>1.62745282508357</v>
       </c>
       <c r="SU11">
         <v>4.25</v>
       </c>
       <c r="SV11">
-        <v>8.350000000000001</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="SW11">
-        <v>4.100000000000001</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="SX11">
         <v>8.350000000000001</v>
       </c>
       <c r="SY11">
-        <v>8.350000000000001</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="SZ11">
-        <v>1.675868378534068</v>
+        <v>1.668452052786765</v>
       </c>
       <c r="TA11">
-        <v>0.04989651780454465</v>
+        <v>0.01431278470652533</v>
       </c>
       <c r="TB11">
         <v>1.649999999999999</v>
       </c>
       <c r="TC11">
-        <v>1.95</v>
+        <v>1.678700108616285</v>
       </c>
       <c r="TD11">
-        <v>0.3000000000000009</v>
+        <v>0.02870010861628591</v>
       </c>
       <c r="TE11">
         <v>1.678700108616284</v>
@@ -67628,46 +67667,46 @@
         <v>1.678700108616284</v>
       </c>
       <c r="TG11">
-        <v>5.647201715137044</v>
+        <v>5.712695141562027</v>
       </c>
       <c r="TH11">
-        <v>1.555197740610101</v>
+        <v>1.551775525121864</v>
       </c>
       <c r="TI11">
-        <v>4.407096549884062</v>
+        <v>4.42944691807002</v>
       </c>
       <c r="TJ11">
         <v>8.873837952092657</v>
       </c>
       <c r="TK11">
-        <v>4.466741402208595</v>
+        <v>4.444391034022638</v>
       </c>
       <c r="TL11">
         <v>8.873837952092657</v>
       </c>
       <c r="TM11">
-        <v>8.873837952092657</v>
+        <v>6.802940540677979</v>
       </c>
       <c r="TN11">
-        <v>7.125258501920624</v>
+        <v>7.010446188580564</v>
       </c>
       <c r="TO11">
-        <v>1.521140916797708</v>
+        <v>1.578747176385415</v>
       </c>
       <c r="TP11">
         <v>4.25</v>
       </c>
       <c r="TQ11">
-        <v>8.449999999999999</v>
+        <v>8.350000000000001</v>
       </c>
       <c r="TR11">
-        <v>4.199999999999999</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="TS11">
         <v>4.25</v>
       </c>
       <c r="TT11">
-        <v>4.25</v>
+        <v>4.250000000000001</v>
       </c>
       <c r="TU11">
         <v>1.646483647597655</v>
@@ -67688,34 +67727,34 @@
         <v>1.62634559672906</v>
       </c>
       <c r="UA11">
-        <v>1.62634559672906</v>
+        <v>1.65</v>
       </c>
       <c r="UB11">
-        <v>7.555344155738466</v>
+        <v>7.525437196589023</v>
       </c>
       <c r="UC11">
-        <v>1.614653040836691</v>
+        <v>1.66574034806806</v>
       </c>
       <c r="UD11">
-        <v>4.425494322671763</v>
+        <v>4.407096549884062</v>
       </c>
       <c r="UE11">
         <v>8.877640452282353</v>
       </c>
       <c r="UF11">
-        <v>4.452146129610591</v>
+        <v>4.470543902398291</v>
       </c>
       <c r="UG11">
         <v>4.425494322671763</v>
       </c>
       <c r="UH11">
-        <v>4.425494322671763</v>
+        <v>4.407096549884062</v>
       </c>
       <c r="UI11">
-        <v>1.668028289475483</v>
+        <v>1.667517836258269</v>
       </c>
       <c r="UJ11">
-        <v>0.01370977902719774</v>
+        <v>0.01404594830877352</v>
       </c>
       <c r="UK11">
         <v>1.649999999999999</v>
@@ -67730,28 +67769,28 @@
         <v>1.649999999999999</v>
       </c>
       <c r="UO11">
-        <v>1.649999999999999</v>
+        <v>1.65</v>
       </c>
       <c r="UP11">
-        <v>7.117844461616098</v>
+        <v>7.088786102600009</v>
       </c>
       <c r="UQ11">
-        <v>1.611975571289238</v>
+        <v>1.654599591485397</v>
       </c>
       <c r="UR11">
-        <v>4.383206588788624</v>
+        <v>4.36033255612459</v>
       </c>
       <c r="US11">
         <v>8.770547303332901</v>
       </c>
       <c r="UT11">
-        <v>4.387340714544277</v>
+        <v>4.410214747208311</v>
       </c>
       <c r="UU11">
         <v>4.383206588788624</v>
       </c>
       <c r="UV11">
-        <v>4.383206588788624</v>
+        <v>4.36033255612459</v>
       </c>
       <c r="UW11">
         <v>1.636257116701296</v>
@@ -67775,31 +67814,31 @@
         <v>1.65</v>
       </c>
       <c r="VD11">
-        <v>5.081700469478278</v>
+        <v>5.111607428627721</v>
       </c>
       <c r="VE11">
-        <v>1.643282340767387</v>
+        <v>1.640469641473711</v>
       </c>
       <c r="VF11">
-        <v>4.407096549884062</v>
+        <v>4.413898503590675</v>
       </c>
       <c r="VG11">
         <v>8.873837952092657</v>
       </c>
       <c r="VH11">
-        <v>4.466741402208595</v>
+        <v>4.459939448501983</v>
       </c>
       <c r="VI11">
         <v>8.873837952092657</v>
       </c>
       <c r="VJ11">
-        <v>8.873837952092657</v>
+        <v>5.501136246267674</v>
       </c>
       <c r="VK11">
-        <v>1.655955094989963</v>
+        <v>1.656465548207177</v>
       </c>
       <c r="VL11">
-        <v>0.01173619244316366</v>
+        <v>0.01188258277979348</v>
       </c>
       <c r="VM11">
         <v>1.649999999999999</v>
@@ -67814,73 +67853,76 @@
         <v>1.678700108616284</v>
       </c>
       <c r="VQ11">
-        <v>1.678700108616284</v>
+        <v>1.668673114842224</v>
       </c>
       <c r="VR11">
-        <v>5.031612405451115</v>
+        <v>5.060670764467205</v>
       </c>
       <c r="VS11">
-        <v>1.619918250283125</v>
+        <v>1.616916748289395</v>
       </c>
       <c r="VT11">
-        <v>4.36033255612459</v>
+        <v>4.368352092036538</v>
       </c>
       <c r="VU11">
         <v>8.770547303332901</v>
       </c>
       <c r="VV11">
-        <v>4.410214747208311</v>
+        <v>4.402195211296362</v>
       </c>
       <c r="VW11">
         <v>8.770547303332901</v>
       </c>
       <c r="VX11">
-        <v>8.770547303332901</v>
+        <v>5.423329235810786</v>
       </c>
       <c r="VY11">
-        <v>0.01516723844482721</v>
+        <v>0.01516723844495067</v>
+      </c>
+      <c r="VZ11">
+        <v>0.007322416890359874</v>
       </c>
       <c r="WA11">
-        <v>0.006534817339776879</v>
+        <v>0</v>
       </c>
       <c r="WB11">
         <v>0.04563633598351941</v>
       </c>
       <c r="WC11">
-        <v>0.03910151864374253</v>
+        <v>0.04563633598351941</v>
       </c>
       <c r="WD11">
         <v>0.02884800353295713</v>
       </c>
       <c r="WE11">
-        <v>0.02884800353295713</v>
+        <v>0</v>
       </c>
       <c r="WF11">
-        <v>0.002277056627984895</v>
+        <v>0.002277056629000351</v>
       </c>
       <c r="WG11">
-        <v>0.001098059322475674</v>
+        <v>0.001098059320194431</v>
       </c>
       <c r="WH11">
-        <v>5.102687195532556E-11</v>
+        <v>8.817375366897825E-11</v>
       </c>
       <c r="WI11">
         <v>0.006853520504105285</v>
       </c>
       <c r="WJ11">
-        <v>0.006853520453078413</v>
+        <v>0.006853520415931532</v>
       </c>
       <c r="WK11">
         <v>0.004327038783980687</v>
       </c>
       <c r="WL11">
-        <v>0.004327038783980687</v>
+        <v>8.817375366897825E-11</v>
       </c>
       <c r="WM11">
-        <v>0.03925242791015481</v>
+        <v>0.0392524279099726</v>
       </c>
       <c r="WN11">
-        <v>0.0587600396857788</v>
+        <v>0.05876003968596822</v>
       </c>
       <c r="WO11">
         <v>0</v>
@@ -67892,37 +67934,37 @@
         <v>0.1915856491336901</v>
       </c>
       <c r="WR11">
-        <v>0.1737820396301909</v>
+        <v>0.1737820396303545</v>
       </c>
       <c r="WS11">
-        <v>0.1737820396301909</v>
+        <v>0</v>
       </c>
       <c r="WT11">
-        <v>0.005904013718438426</v>
+        <v>0.005904013717861223</v>
       </c>
       <c r="WU11">
-        <v>0.008834047139279263</v>
+        <v>0.008834047139697166</v>
       </c>
       <c r="WV11">
-        <v>2.324108532819377E-11</v>
+        <v>2.126168193554637E-12</v>
       </c>
       <c r="WW11">
         <v>0.02880820887799566</v>
       </c>
       <c r="WX11">
-        <v>0.02880820885475457</v>
+        <v>0.02880820887586949</v>
       </c>
       <c r="WY11">
         <v>0.02612917387903913</v>
       </c>
       <c r="WZ11">
-        <v>0.02612917387903913</v>
+        <v>2.126168193554637E-12</v>
       </c>
       <c r="XA11">
-        <v>0.02664569103963783</v>
+        <v>0.02664569103986953</v>
       </c>
       <c r="XB11">
-        <v>0.01417095339002501</v>
+        <v>0.01417095339000691</v>
       </c>
       <c r="XC11">
         <v>0</v>
@@ -67937,7 +67979,7 @@
         <v>0.02297297680395831</v>
       </c>
       <c r="XG11">
-        <v>0.02297297680395831</v>
+        <v>0</v>
       </c>
       <c r="XH11">
         <v>0.004011749943406045</v>
@@ -67958,13 +68000,13 @@
         <v>0.003458822284003244</v>
       </c>
       <c r="XN11">
-        <v>0.003458822284003244</v>
+        <v>1.04398875921677E-10</v>
       </c>
       <c r="XO11">
-        <v>0.1421500778913822</v>
+        <v>0.142150077891336</v>
       </c>
       <c r="XP11">
-        <v>0.06187373172055256</v>
+        <v>0.06187373172053418</v>
       </c>
       <c r="XQ11">
         <v>0</v>
@@ -67979,34 +68021,34 @@
         <v>0.01957028498909754</v>
       </c>
       <c r="XU11">
-        <v>0.01957028498909754</v>
+        <v>0</v>
       </c>
       <c r="XV11">
-        <v>0.02137290187915856</v>
+        <v>0.02137290187973576</v>
       </c>
       <c r="XW11">
-        <v>0.009301789560653709</v>
+        <v>0.009301789559216938</v>
       </c>
       <c r="XX11">
-        <v>2.126168193554637E-12</v>
+        <v>2.324108532819377E-11</v>
       </c>
       <c r="XY11">
         <v>0.02845040127216296</v>
       </c>
       <c r="XZ11">
-        <v>0.02845040127003679</v>
+        <v>0.02845040124892187</v>
       </c>
       <c r="YA11">
         <v>0.002945686997722472</v>
       </c>
       <c r="YB11">
-        <v>0.002945686997722472</v>
+        <v>2.324108532819377E-11</v>
       </c>
       <c r="YC11">
-        <v>0.02460576162856525</v>
+        <v>0.02460576162848526</v>
       </c>
       <c r="YD11">
-        <v>0.009259951248847483</v>
+        <v>0.009259951248654471</v>
       </c>
       <c r="YE11">
         <v>0</v>
@@ -68021,49 +68063,49 @@
         <v>0.01567234446546164</v>
       </c>
       <c r="YI11">
-        <v>0.01567234446546164</v>
+        <v>0</v>
       </c>
       <c r="YJ11">
-        <v>0.003691366444078826</v>
+        <v>0.00369136644306337</v>
       </c>
       <c r="YK11">
-        <v>0.001388866933464206</v>
+        <v>0.001388866936388023</v>
       </c>
       <c r="YL11">
-        <v>8.817375366897825E-11</v>
+        <v>5.102687195532556E-11</v>
       </c>
       <c r="YM11">
         <v>0.007223331889103828</v>
       </c>
       <c r="YN11">
-        <v>0.007223331800930074</v>
+        <v>0.007223331838076956</v>
       </c>
       <c r="YO11">
         <v>0.002353718556014814</v>
       </c>
       <c r="YP11">
-        <v>0.002353718556014814</v>
+        <v>5.102687195532556E-11</v>
       </c>
       <c r="YQ11">
         <v>8.297624488706868</v>
       </c>
       <c r="YR11">
-        <v>0.01135335458614977</v>
+        <v>0.01135335458614919</v>
       </c>
       <c r="YS11">
-        <v>8.235004800642301</v>
+        <v>8.235004800642304</v>
       </c>
       <c r="YT11">
         <v>8.305489359796962</v>
       </c>
       <c r="YU11">
-        <v>0.07048455915466079</v>
+        <v>0.07048455915465723</v>
       </c>
       <c r="YV11">
         <v>8.300932379461056</v>
       </c>
       <c r="YW11">
-        <v>8.300932379461056</v>
+        <v>8.235004800642304</v>
       </c>
       <c r="YX11">
         <v>1.997760678878872</v>
@@ -68084,7 +68126,7 @@
         <v>1.997488059873858</v>
       </c>
       <c r="ZD11">
-        <v>1.997488059873858</v>
+        <v>1.999999999999291</v>
       </c>
       <c r="ZE11">
         <v>1.91715669795656</v>
@@ -68105,7 +68147,7 @@
         <v>1.91714</v>
       </c>
       <c r="ZK11">
-        <v>1.91714</v>
+        <v>1.91761</v>
       </c>
       <c r="ZL11">
         <v>-0.3801742083364718</v>
@@ -68126,7 +68168,7 @@
         <v>-0.37962</v>
       </c>
       <c r="ZR11">
-        <v>-0.37962</v>
+        <v>-0.38014</v>
       </c>
     </row>
     <row r="12" spans="1:694">
@@ -69481,16 +69523,16 @@
         <v>5.617759737003294</v>
       </c>
       <c r="QI12">
-        <v>0.007757841448920011</v>
+        <v>0.007757841448919461</v>
       </c>
       <c r="QJ12">
         <v>5.616497152836173</v>
       </c>
       <c r="QK12">
-        <v>5.641593436773089</v>
+        <v>5.641593436773087</v>
       </c>
       <c r="QL12">
-        <v>0.02509628393691621</v>
+        <v>0.02509628393691443</v>
       </c>
       <c r="QM12">
         <v>5.616497152836173</v>
@@ -69607,16 +69649,16 @@
         <v>5.617759737003294</v>
       </c>
       <c r="RY12">
-        <v>0.007757841448920011</v>
+        <v>0.007757841448919461</v>
       </c>
       <c r="RZ12">
         <v>5.616497152836173</v>
       </c>
       <c r="SA12">
-        <v>5.641593436773089</v>
+        <v>5.641593436773087</v>
       </c>
       <c r="SB12">
-        <v>0.02509628393691621</v>
+        <v>0.02509628393691443</v>
       </c>
       <c r="SC12">
         <v>5.616497152836173</v>
@@ -70003,25 +70045,25 @@
         <v>0.008243269275971965</v>
       </c>
       <c r="XA12">
-        <v>0.03476902141474117</v>
+        <v>0.03476902141399667</v>
       </c>
       <c r="XB12">
-        <v>0.009135696189654367</v>
+        <v>0.009135696189412033</v>
       </c>
       <c r="XC12">
         <v>0.006702265783561943</v>
       </c>
       <c r="XD12">
-        <v>0.03625585063658662</v>
+        <v>0.03625585063580269</v>
       </c>
       <c r="XE12">
-        <v>0.02955358485302468</v>
+        <v>0.02955358485224074</v>
       </c>
       <c r="XF12">
-        <v>0.03625585063658662</v>
+        <v>0.03625585063580269</v>
       </c>
       <c r="XG12">
-        <v>0.03625585063658662</v>
+        <v>0.03625585063580269</v>
       </c>
       <c r="XH12">
         <v>0.005231759538609092</v>
@@ -70087,19 +70129,19 @@
         <v>0.001230147251334112</v>
       </c>
       <c r="YC12">
-        <v>0.01363851741318616</v>
+        <v>0.01363851741317102</v>
       </c>
       <c r="YD12">
-        <v>0.02629873042641597</v>
+        <v>0.02629873042632293</v>
       </c>
       <c r="YE12">
         <v>0.009358414388338232</v>
       </c>
       <c r="YF12">
-        <v>0.09443367795326105</v>
+        <v>0.09443367795296008</v>
       </c>
       <c r="YG12">
-        <v>0.08507526356492282</v>
+        <v>0.08507526356462185</v>
       </c>
       <c r="YH12">
         <v>0.009358414388338232</v>
@@ -70132,16 +70174,16 @@
         <v>8.207404680430663</v>
       </c>
       <c r="YR12">
-        <v>0.009759629766272995</v>
+        <v>0.009759629766274093</v>
       </c>
       <c r="YS12">
         <v>8.205816306383449</v>
       </c>
       <c r="YT12">
-        <v>8.237388289562825</v>
+        <v>8.237388289562828</v>
       </c>
       <c r="YU12">
-        <v>0.03157198317937571</v>
+        <v>0.03157198317937926</v>
       </c>
       <c r="YV12">
         <v>8.205816306383449</v>
@@ -70449,25 +70491,25 @@
         <v>522.0202462238508</v>
       </c>
       <c r="CA13">
-        <v>0.8863997779083271</v>
+        <v>0.886399777908327</v>
       </c>
       <c r="CB13">
         <v>0</v>
       </c>
       <c r="CC13">
-        <v>0.8863997779083271</v>
+        <v>0.886399777908327</v>
       </c>
       <c r="CD13">
-        <v>0.8863997779083271</v>
+        <v>0.886399777908327</v>
       </c>
       <c r="CE13">
         <v>0</v>
       </c>
       <c r="CF13">
-        <v>0.8863997779083271</v>
+        <v>0.886399777908327</v>
       </c>
       <c r="CG13">
-        <v>0.8863997779083271</v>
+        <v>0.886399777908327</v>
       </c>
       <c r="CH13">
         <v>0.37935</v>
@@ -72045,25 +72087,25 @@
         <v>0.01424838643996654</v>
       </c>
       <c r="WM13">
-        <v>0.2007948871940912</v>
+        <v>0.2007948871939496</v>
       </c>
       <c r="WN13">
         <v>0</v>
       </c>
       <c r="WO13">
-        <v>0.2007948871940912</v>
+        <v>0.2007948871939496</v>
       </c>
       <c r="WP13">
-        <v>0.2007948871940912</v>
+        <v>0.2007948871939496</v>
       </c>
       <c r="WQ13">
         <v>0</v>
       </c>
       <c r="WR13">
-        <v>0.2007948871940912</v>
+        <v>0.2007948871939496</v>
       </c>
       <c r="WS13">
-        <v>0.2007948871940912</v>
+        <v>0.2007948871939496</v>
       </c>
       <c r="WT13">
         <v>0.03014661611718433</v>
@@ -74255,25 +74297,25 @@
         <v>0.001482993692936764</v>
       </c>
       <c r="YC14">
-        <v>0.004782117586790818</v>
+        <v>0.004782117580847487</v>
       </c>
       <c r="YD14">
         <v>0</v>
       </c>
       <c r="YE14">
-        <v>0.004782117586790818</v>
+        <v>0.004782117580847487</v>
       </c>
       <c r="YF14">
-        <v>0.004782117586790818</v>
+        <v>0.004782117580847487</v>
       </c>
       <c r="YG14">
         <v>0</v>
       </c>
       <c r="YH14">
-        <v>0.004782117586790818</v>
+        <v>0.004782117580847487</v>
       </c>
       <c r="YI14">
-        <v>0.004782117586790818</v>
+        <v>0.004782117580847487</v>
       </c>
       <c r="YJ14">
         <v>0.0007171831019081697</v>
